--- a/database/industries/siman/save/product/monthly_seprated.xlsx
+++ b/database/industries/siman/save/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19CD7E0-B016-4F42-BF64-098EFEB6EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD884F2F-87FA-4ED1-A47C-AC0251774107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1501,104 +1501,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>19140</v>
+      </c>
+      <c r="X11" s="11">
+        <v>21491</v>
       </c>
       <c r="Y11" s="11">
-        <v>19140</v>
+        <v>24349</v>
       </c>
       <c r="Z11" s="11">
-        <v>21491</v>
+        <v>21132</v>
       </c>
       <c r="AA11" s="11">
-        <v>24349</v>
+        <v>25077</v>
       </c>
       <c r="AB11" s="11">
-        <v>21132</v>
+        <v>22587</v>
       </c>
       <c r="AC11" s="11">
-        <v>25077</v>
+        <v>17553</v>
       </c>
       <c r="AD11" s="11">
-        <v>22587</v>
+        <v>21317</v>
       </c>
       <c r="AE11" s="11">
-        <v>17553</v>
+        <v>19837</v>
       </c>
       <c r="AF11" s="11">
-        <v>21317</v>
+        <v>15834</v>
       </c>
       <c r="AG11" s="11">
-        <v>19837</v>
+        <v>32837</v>
       </c>
       <c r="AH11" s="11">
-        <v>15834</v>
+        <v>26704</v>
       </c>
       <c r="AI11" s="11">
-        <v>32837</v>
+        <v>16395</v>
       </c>
       <c r="AJ11" s="11">
-        <v>26704</v>
+        <v>8405</v>
       </c>
       <c r="AK11" s="11">
-        <v>16395</v>
+        <v>24351</v>
       </c>
       <c r="AL11" s="11">
-        <v>8405</v>
+        <v>23734</v>
       </c>
       <c r="AM11" s="11">
-        <v>24351</v>
+        <v>18060</v>
       </c>
       <c r="AN11" s="11">
-        <v>23734</v>
+        <v>20116</v>
       </c>
       <c r="AO11" s="11">
-        <v>18060</v>
+        <v>20556</v>
       </c>
       <c r="AP11" s="11">
-        <v>20116</v>
+        <v>19059</v>
       </c>
       <c r="AQ11" s="11">
-        <v>20556</v>
+        <v>21797</v>
       </c>
       <c r="AR11" s="11">
-        <v>-5797</v>
+        <v>21237</v>
       </c>
       <c r="AS11" s="11">
-        <v>21797</v>
+        <v>17988</v>
       </c>
       <c r="AT11" s="11">
-        <v>21237</v>
+        <v>21940</v>
       </c>
       <c r="AU11" s="11">
-        <v>17988</v>
+        <v>13864</v>
       </c>
       <c r="AV11" s="11">
-        <v>21940</v>
+        <v>20129</v>
       </c>
       <c r="AW11" s="11">
-        <v>13864</v>
+        <v>31021</v>
       </c>
       <c r="AX11" s="11">
-        <v>20129</v>
+        <v>21942</v>
       </c>
       <c r="AY11" s="11">
-        <v>25711</v>
+        <v>23379</v>
       </c>
       <c r="AZ11" s="11">
-        <v>21942</v>
+        <v>23204</v>
       </c>
       <c r="BA11" s="11">
-        <v>23379</v>
+        <v>22149</v>
       </c>
       <c r="BB11" s="11">
-        <v>23204</v>
+        <v>22047</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1660,104 +1660,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>164554</v>
+      </c>
+      <c r="X12" s="13">
+        <v>171058</v>
       </c>
       <c r="Y12" s="13">
-        <v>164554</v>
+        <v>153965</v>
       </c>
       <c r="Z12" s="13">
-        <v>171058</v>
+        <v>153154</v>
       </c>
       <c r="AA12" s="13">
-        <v>153965</v>
+        <v>209383</v>
       </c>
       <c r="AB12" s="13">
-        <v>153154</v>
+        <v>140423</v>
       </c>
       <c r="AC12" s="13">
-        <v>209383</v>
+        <v>114098</v>
       </c>
       <c r="AD12" s="13">
-        <v>140423</v>
+        <v>132416</v>
       </c>
       <c r="AE12" s="13">
-        <v>114098</v>
+        <v>130950</v>
       </c>
       <c r="AF12" s="13">
-        <v>132416</v>
+        <v>90395</v>
       </c>
       <c r="AG12" s="13">
-        <v>130950</v>
+        <v>139873</v>
       </c>
       <c r="AH12" s="13">
-        <v>90395</v>
+        <v>147886</v>
       </c>
       <c r="AI12" s="13">
-        <v>139873</v>
+        <v>107423</v>
       </c>
       <c r="AJ12" s="13">
-        <v>147886</v>
+        <v>106479</v>
       </c>
       <c r="AK12" s="13">
-        <v>107423</v>
+        <v>140821</v>
       </c>
       <c r="AL12" s="13">
-        <v>106479</v>
+        <v>173714</v>
       </c>
       <c r="AM12" s="13">
-        <v>140821</v>
+        <v>158509</v>
       </c>
       <c r="AN12" s="13">
-        <v>173714</v>
+        <v>172269</v>
       </c>
       <c r="AO12" s="13">
-        <v>158509</v>
+        <v>140373</v>
       </c>
       <c r="AP12" s="13">
-        <v>172269</v>
+        <v>151743</v>
       </c>
       <c r="AQ12" s="13">
-        <v>140373</v>
+        <v>172665</v>
       </c>
       <c r="AR12" s="13">
-        <v>151743</v>
+        <v>122380</v>
       </c>
       <c r="AS12" s="13">
-        <v>172665</v>
+        <v>155063</v>
       </c>
       <c r="AT12" s="13">
-        <v>122380</v>
+        <v>161625</v>
       </c>
       <c r="AU12" s="13">
-        <v>155063</v>
+        <v>134480</v>
       </c>
       <c r="AV12" s="13">
-        <v>161625</v>
+        <v>115271</v>
       </c>
       <c r="AW12" s="13">
-        <v>134480</v>
+        <v>181458</v>
       </c>
       <c r="AX12" s="13">
-        <v>115271</v>
+        <v>163674</v>
       </c>
       <c r="AY12" s="13">
-        <v>181458</v>
+        <v>170203</v>
       </c>
       <c r="AZ12" s="13">
-        <v>163674</v>
+        <v>196591</v>
       </c>
       <c r="BA12" s="13">
-        <v>170203</v>
+        <v>212753</v>
       </c>
       <c r="BB12" s="13">
-        <v>196591</v>
+        <v>175818</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1906,17 +1906,17 @@
       <c r="AY13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA13" s="11" t="s">
-        <v>58</v>
+      <c r="AZ13" s="11">
+        <v>315</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>31020</v>
       </c>
       <c r="BB13" s="11">
-        <v>315</v>
+        <v>22616</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1977,103 +1977,103 @@
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <v>0</v>
+        <v>183694</v>
       </c>
       <c r="X14" s="15">
-        <v>0</v>
+        <v>192549</v>
       </c>
       <c r="Y14" s="15">
-        <v>183694</v>
+        <v>178314</v>
       </c>
       <c r="Z14" s="15">
-        <v>192549</v>
+        <v>174286</v>
       </c>
       <c r="AA14" s="15">
-        <v>178314</v>
+        <v>234460</v>
       </c>
       <c r="AB14" s="15">
-        <v>174286</v>
+        <v>163010</v>
       </c>
       <c r="AC14" s="15">
-        <v>234460</v>
+        <v>131651</v>
       </c>
       <c r="AD14" s="15">
-        <v>163010</v>
+        <v>153733</v>
       </c>
       <c r="AE14" s="15">
-        <v>131651</v>
+        <v>150787</v>
       </c>
       <c r="AF14" s="15">
-        <v>153733</v>
+        <v>106229</v>
       </c>
       <c r="AG14" s="15">
-        <v>150787</v>
+        <v>172710</v>
       </c>
       <c r="AH14" s="15">
-        <v>106229</v>
+        <v>174590</v>
       </c>
       <c r="AI14" s="15">
-        <v>172710</v>
+        <v>123818</v>
       </c>
       <c r="AJ14" s="15">
-        <v>174590</v>
+        <v>114884</v>
       </c>
       <c r="AK14" s="15">
-        <v>123818</v>
+        <v>165172</v>
       </c>
       <c r="AL14" s="15">
-        <v>114884</v>
+        <v>197448</v>
       </c>
       <c r="AM14" s="15">
-        <v>165172</v>
+        <v>176569</v>
       </c>
       <c r="AN14" s="15">
-        <v>197448</v>
+        <v>192385</v>
       </c>
       <c r="AO14" s="15">
-        <v>176569</v>
+        <v>160929</v>
       </c>
       <c r="AP14" s="15">
-        <v>192385</v>
+        <v>170802</v>
       </c>
       <c r="AQ14" s="15">
-        <v>160929</v>
+        <v>194462</v>
       </c>
       <c r="AR14" s="15">
-        <v>145946</v>
+        <v>143617</v>
       </c>
       <c r="AS14" s="15">
-        <v>194462</v>
+        <v>173051</v>
       </c>
       <c r="AT14" s="15">
-        <v>143617</v>
+        <v>183565</v>
       </c>
       <c r="AU14" s="15">
-        <v>173051</v>
+        <v>148344</v>
       </c>
       <c r="AV14" s="15">
-        <v>183565</v>
+        <v>135400</v>
       </c>
       <c r="AW14" s="15">
-        <v>148344</v>
+        <v>212479</v>
       </c>
       <c r="AX14" s="15">
-        <v>135400</v>
+        <v>185616</v>
       </c>
       <c r="AY14" s="15">
-        <v>207169</v>
+        <v>193582</v>
       </c>
       <c r="AZ14" s="15">
-        <v>185616</v>
+        <v>220110</v>
       </c>
       <c r="BA14" s="15">
-        <v>193582</v>
+        <v>265922</v>
       </c>
       <c r="BB14" s="15">
-        <v>220110</v>
+        <v>220481</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2219,77 +2219,77 @@
       <c r="AE16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>58</v>
+      <c r="AF16" s="11">
+        <v>6179</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>3190</v>
       </c>
       <c r="AH16" s="11">
-        <v>6179</v>
+        <v>5737</v>
       </c>
       <c r="AI16" s="11">
-        <v>3190</v>
+        <v>4470</v>
       </c>
       <c r="AJ16" s="11">
-        <v>5737</v>
+        <v>6135</v>
       </c>
       <c r="AK16" s="11">
-        <v>4470</v>
+        <v>2489</v>
       </c>
       <c r="AL16" s="11">
-        <v>6135</v>
+        <v>3403</v>
       </c>
       <c r="AM16" s="11">
-        <v>2489</v>
+        <v>6923</v>
       </c>
       <c r="AN16" s="11">
-        <v>3403</v>
+        <v>8274</v>
       </c>
       <c r="AO16" s="11">
-        <v>6923</v>
+        <v>4185</v>
       </c>
       <c r="AP16" s="11">
-        <v>8274</v>
+        <v>5149</v>
       </c>
       <c r="AQ16" s="11">
-        <v>4185</v>
+        <v>3389</v>
       </c>
       <c r="AR16" s="11">
-        <v>5149</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="11">
-        <v>3389</v>
+        <v>5712</v>
       </c>
       <c r="AT16" s="11">
-        <v>0</v>
+        <v>8363</v>
       </c>
       <c r="AU16" s="11">
-        <v>5712</v>
+        <v>10199</v>
       </c>
       <c r="AV16" s="11">
-        <v>8363</v>
+        <v>6987</v>
       </c>
       <c r="AW16" s="11">
-        <v>10199</v>
+        <v>5311</v>
       </c>
       <c r="AX16" s="11">
-        <v>6987</v>
+        <v>5357</v>
       </c>
       <c r="AY16" s="11">
-        <v>5311</v>
+        <v>6294</v>
       </c>
       <c r="AZ16" s="11">
-        <v>5357</v>
+        <v>3499</v>
       </c>
       <c r="BA16" s="11">
-        <v>6294</v>
+        <v>4261</v>
       </c>
       <c r="BB16" s="11">
-        <v>3499</v>
+        <v>4706</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>63</v>
       </c>
@@ -2378,38 +2378,38 @@
       <c r="AE17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>58</v>
+      <c r="AF17" s="13">
+        <v>587</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>4412</v>
       </c>
       <c r="AH17" s="13">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="13">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="AK17" s="13">
-        <v>0</v>
+        <v>27260</v>
       </c>
       <c r="AL17" s="13">
-        <v>6256</v>
+        <v>186337</v>
       </c>
       <c r="AM17" s="13">
-        <v>27260</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="13">
-        <v>186337</v>
+        <v>27547</v>
       </c>
       <c r="AO17" s="13">
         <v>0</v>
       </c>
-      <c r="AP17" s="13">
-        <v>27547</v>
+      <c r="AP17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>58</v>
@@ -2448,7 +2448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>64</v>
       </c>
@@ -2510,11 +2510,11 @@
       <c r="V18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>58</v>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <v>0</v>
       </c>
       <c r="Y18" s="11">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AC18" s="11">
         <v>0</v>
       </c>
       <c r="AD18" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="11">
         <v>0</v>
       </c>
-      <c r="AF18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="11">
-        <v>0</v>
+      <c r="AF18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>58</v>
@@ -2567,47 +2567,47 @@
       <c r="AO18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>58</v>
+      <c r="AP18" s="11">
+        <v>14611</v>
       </c>
       <c r="AQ18" s="11">
-        <v>-29576</v>
+        <v>26662</v>
       </c>
       <c r="AR18" s="11">
-        <v>14611</v>
+        <v>27314</v>
       </c>
       <c r="AS18" s="11">
-        <v>26662</v>
+        <v>25799</v>
       </c>
       <c r="AT18" s="11">
-        <v>27314</v>
+        <v>25645</v>
       </c>
       <c r="AU18" s="11">
-        <v>25799</v>
+        <v>25273</v>
       </c>
       <c r="AV18" s="11">
-        <v>25645</v>
+        <v>25919</v>
       </c>
       <c r="AW18" s="11">
-        <v>25273</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="11">
-        <v>25919</v>
+        <v>24644</v>
       </c>
       <c r="AY18" s="11">
-        <v>27004</v>
+        <v>24490</v>
       </c>
       <c r="AZ18" s="11">
-        <v>-156954</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="11">
-        <v>24490</v>
+        <v>26426</v>
       </c>
       <c r="BB18" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>65</v>
       </c>
@@ -2669,39 +2669,39 @@
       <c r="V19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>58</v>
+      <c r="W19" s="13">
+        <v>5759</v>
+      </c>
+      <c r="X19" s="13">
+        <v>5002</v>
       </c>
       <c r="Y19" s="13">
-        <v>5759</v>
+        <v>4146</v>
       </c>
       <c r="Z19" s="13">
-        <v>5002</v>
+        <v>5775</v>
       </c>
       <c r="AA19" s="13">
-        <v>4146</v>
+        <v>5183</v>
       </c>
       <c r="AB19" s="13">
-        <v>5775</v>
+        <v>5265</v>
       </c>
       <c r="AC19" s="13">
-        <v>5183</v>
+        <v>5682</v>
       </c>
       <c r="AD19" s="13">
-        <v>5265</v>
+        <v>5488</v>
       </c>
       <c r="AE19" s="13">
-        <v>5682</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AG19" s="13">
         <v>7856</v>
       </c>
+      <c r="AF19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH19" s="13" t="s">
         <v>58</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
@@ -2828,39 +2828,39 @@
       <c r="V20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>58</v>
+      <c r="W20" s="11">
+        <v>38739</v>
+      </c>
+      <c r="X20" s="11">
+        <v>17230</v>
       </c>
       <c r="Y20" s="11">
-        <v>38739</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="11">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="11">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AB20" s="11">
-        <v>0</v>
+        <v>36929</v>
       </c>
       <c r="AC20" s="11">
-        <v>10626</v>
+        <v>67415</v>
       </c>
       <c r="AD20" s="11">
-        <v>36929</v>
+        <v>62289</v>
       </c>
       <c r="AE20" s="11">
-        <v>67415</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>62289</v>
-      </c>
-      <c r="AG20" s="11">
         <v>20479</v>
       </c>
+      <c r="AF20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2885,47 +2885,47 @@
       <c r="AO20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="11" t="s">
-        <v>58</v>
+      <c r="AP20" s="11">
+        <v>110564</v>
       </c>
       <c r="AQ20" s="11">
-        <v>690282</v>
+        <v>169974</v>
       </c>
       <c r="AR20" s="11">
-        <v>110564</v>
+        <v>192555</v>
       </c>
       <c r="AS20" s="11">
-        <v>169974</v>
+        <v>169077</v>
       </c>
       <c r="AT20" s="11">
-        <v>192555</v>
+        <v>140508</v>
       </c>
       <c r="AU20" s="11">
-        <v>169077</v>
+        <v>180806</v>
       </c>
       <c r="AV20" s="11">
-        <v>140508</v>
+        <v>219813</v>
       </c>
       <c r="AW20" s="11">
-        <v>180806</v>
+        <v>204773</v>
       </c>
       <c r="AX20" s="11">
-        <v>219813</v>
+        <v>136083</v>
       </c>
       <c r="AY20" s="11">
-        <v>204773</v>
+        <v>198340</v>
       </c>
       <c r="AZ20" s="11">
-        <v>136083</v>
+        <v>202344</v>
       </c>
       <c r="BA20" s="11">
-        <v>198340</v>
+        <v>171445</v>
       </c>
       <c r="BB20" s="11">
-        <v>202344</v>
+        <v>50067</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>66</v>
       </c>
@@ -3014,38 +3014,38 @@
       <c r="AE21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>58</v>
+      <c r="AF21" s="13">
+        <v>40166</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>157376</v>
       </c>
       <c r="AH21" s="13">
-        <v>40166</v>
+        <v>157438</v>
       </c>
       <c r="AI21" s="13">
-        <v>157376</v>
+        <v>80965</v>
       </c>
       <c r="AJ21" s="13">
-        <v>157438</v>
+        <v>54772</v>
       </c>
       <c r="AK21" s="13">
-        <v>80965</v>
+        <v>131461</v>
       </c>
       <c r="AL21" s="13">
-        <v>54772</v>
+        <v>24750</v>
       </c>
       <c r="AM21" s="13">
-        <v>131461</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="13">
-        <v>24750</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="13">
         <v>0</v>
       </c>
-      <c r="AP21" s="13">
-        <v>0</v>
+      <c r="AP21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ21" s="13" t="s">
         <v>58</v>
@@ -3084,7 +3084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>67</v>
       </c>
@@ -3145,103 +3145,103 @@
         <v>0</v>
       </c>
       <c r="W22" s="17">
-        <v>0</v>
+        <v>44498</v>
       </c>
       <c r="X22" s="17">
-        <v>0</v>
+        <v>22232</v>
       </c>
       <c r="Y22" s="17">
-        <v>44498</v>
+        <v>4146</v>
       </c>
       <c r="Z22" s="17">
-        <v>22232</v>
+        <v>5775</v>
       </c>
       <c r="AA22" s="17">
-        <v>4146</v>
+        <v>15809</v>
       </c>
       <c r="AB22" s="17">
-        <v>5775</v>
+        <v>42471</v>
       </c>
       <c r="AC22" s="17">
-        <v>15809</v>
+        <v>73097</v>
       </c>
       <c r="AD22" s="17">
-        <v>42471</v>
+        <v>67777</v>
       </c>
       <c r="AE22" s="17">
-        <v>73097</v>
+        <v>28335</v>
       </c>
       <c r="AF22" s="17">
-        <v>67777</v>
+        <v>46932</v>
       </c>
       <c r="AG22" s="17">
-        <v>28335</v>
+        <v>164978</v>
       </c>
       <c r="AH22" s="17">
-        <v>46932</v>
+        <v>163175</v>
       </c>
       <c r="AI22" s="17">
-        <v>164978</v>
+        <v>85435</v>
       </c>
       <c r="AJ22" s="17">
-        <v>163175</v>
+        <v>67163</v>
       </c>
       <c r="AK22" s="17">
-        <v>85435</v>
+        <v>161210</v>
       </c>
       <c r="AL22" s="17">
-        <v>67163</v>
+        <v>214490</v>
       </c>
       <c r="AM22" s="17">
-        <v>161210</v>
+        <v>6923</v>
       </c>
       <c r="AN22" s="17">
-        <v>214490</v>
+        <v>35821</v>
       </c>
       <c r="AO22" s="17">
-        <v>6923</v>
+        <v>4185</v>
       </c>
       <c r="AP22" s="17">
-        <v>35821</v>
+        <v>130324</v>
       </c>
       <c r="AQ22" s="17">
-        <v>664891</v>
+        <v>200025</v>
       </c>
       <c r="AR22" s="17">
-        <v>130324</v>
+        <v>219869</v>
       </c>
       <c r="AS22" s="17">
-        <v>200025</v>
+        <v>200588</v>
       </c>
       <c r="AT22" s="17">
-        <v>219869</v>
+        <v>174516</v>
       </c>
       <c r="AU22" s="17">
-        <v>200588</v>
+        <v>216278</v>
       </c>
       <c r="AV22" s="17">
-        <v>174516</v>
+        <v>252719</v>
       </c>
       <c r="AW22" s="17">
-        <v>216278</v>
+        <v>210084</v>
       </c>
       <c r="AX22" s="17">
-        <v>252719</v>
+        <v>166084</v>
       </c>
       <c r="AY22" s="17">
-        <v>237088</v>
+        <v>229124</v>
       </c>
       <c r="AZ22" s="17">
-        <v>-15514</v>
+        <v>205843</v>
       </c>
       <c r="BA22" s="17">
-        <v>229124</v>
+        <v>202132</v>
       </c>
       <c r="BB22" s="17">
-        <v>205843</v>
+        <v>54773</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>68</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="BA23" s="19"/>
       <c r="BB23" s="19"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3358,11 +3358,11 @@
       <c r="V24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>58</v>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
       </c>
       <c r="Y24" s="17">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3516,103 +3516,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>228192</v>
       </c>
       <c r="X25" s="15">
-        <v>0</v>
+        <v>214781</v>
       </c>
       <c r="Y25" s="15">
-        <v>228192</v>
+        <v>182460</v>
       </c>
       <c r="Z25" s="15">
-        <v>214781</v>
+        <v>180061</v>
       </c>
       <c r="AA25" s="15">
-        <v>182460</v>
+        <v>250269</v>
       </c>
       <c r="AB25" s="15">
-        <v>180061</v>
+        <v>205481</v>
       </c>
       <c r="AC25" s="15">
-        <v>250269</v>
+        <v>204748</v>
       </c>
       <c r="AD25" s="15">
-        <v>205481</v>
+        <v>221510</v>
       </c>
       <c r="AE25" s="15">
-        <v>204748</v>
+        <v>179122</v>
       </c>
       <c r="AF25" s="15">
-        <v>221510</v>
+        <v>153161</v>
       </c>
       <c r="AG25" s="15">
-        <v>179122</v>
+        <v>337688</v>
       </c>
       <c r="AH25" s="15">
-        <v>153161</v>
+        <v>337765</v>
       </c>
       <c r="AI25" s="15">
-        <v>337688</v>
+        <v>209253</v>
       </c>
       <c r="AJ25" s="15">
-        <v>337765</v>
+        <v>182047</v>
       </c>
       <c r="AK25" s="15">
-        <v>209253</v>
+        <v>326382</v>
       </c>
       <c r="AL25" s="15">
-        <v>182047</v>
+        <v>411938</v>
       </c>
       <c r="AM25" s="15">
-        <v>326382</v>
+        <v>183492</v>
       </c>
       <c r="AN25" s="15">
-        <v>411938</v>
+        <v>228206</v>
       </c>
       <c r="AO25" s="15">
-        <v>183492</v>
+        <v>165114</v>
       </c>
       <c r="AP25" s="15">
-        <v>228206</v>
+        <v>301126</v>
       </c>
       <c r="AQ25" s="15">
-        <v>825820</v>
+        <v>394487</v>
       </c>
       <c r="AR25" s="15">
-        <v>276270</v>
+        <v>363486</v>
       </c>
       <c r="AS25" s="15">
-        <v>394487</v>
+        <v>373639</v>
       </c>
       <c r="AT25" s="15">
-        <v>363486</v>
+        <v>358081</v>
       </c>
       <c r="AU25" s="15">
-        <v>373639</v>
+        <v>364622</v>
       </c>
       <c r="AV25" s="15">
-        <v>358081</v>
+        <v>388119</v>
       </c>
       <c r="AW25" s="15">
-        <v>364622</v>
+        <v>422563</v>
       </c>
       <c r="AX25" s="15">
-        <v>388119</v>
+        <v>351700</v>
       </c>
       <c r="AY25" s="15">
-        <v>444257</v>
+        <v>422706</v>
       </c>
       <c r="AZ25" s="15">
-        <v>170102</v>
+        <v>425953</v>
       </c>
       <c r="BA25" s="15">
-        <v>422706</v>
+        <v>468054</v>
       </c>
       <c r="BB25" s="15">
-        <v>425953</v>
+        <v>275254</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3667,7 +3667,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3722,7 +3722,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>71</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3989,7 +3989,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4108,104 +4108,104 @@
       <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
+      <c r="W32" s="11">
+        <v>20143</v>
+      </c>
+      <c r="X32" s="11">
+        <v>22386</v>
       </c>
       <c r="Y32" s="11">
-        <v>20143</v>
+        <v>24346</v>
       </c>
       <c r="Z32" s="11">
-        <v>22386</v>
+        <v>20598</v>
       </c>
       <c r="AA32" s="11">
-        <v>24346</v>
+        <v>23029</v>
       </c>
       <c r="AB32" s="11">
-        <v>20598</v>
+        <v>25439</v>
       </c>
       <c r="AC32" s="11">
-        <v>23029</v>
+        <v>16218</v>
       </c>
       <c r="AD32" s="11">
-        <v>25439</v>
+        <v>21107</v>
       </c>
       <c r="AE32" s="11">
-        <v>16218</v>
+        <v>19146</v>
       </c>
       <c r="AF32" s="11">
-        <v>21107</v>
+        <v>16883</v>
       </c>
       <c r="AG32" s="11">
-        <v>19146</v>
+        <v>26911</v>
       </c>
       <c r="AH32" s="11">
-        <v>16883</v>
+        <v>22555</v>
       </c>
       <c r="AI32" s="11">
-        <v>26911</v>
+        <v>13789</v>
       </c>
       <c r="AJ32" s="11">
-        <v>22555</v>
+        <v>7855</v>
       </c>
       <c r="AK32" s="11">
-        <v>13789</v>
+        <v>15226</v>
       </c>
       <c r="AL32" s="11">
-        <v>7855</v>
+        <v>18880</v>
       </c>
       <c r="AM32" s="11">
-        <v>15226</v>
+        <v>20878</v>
       </c>
       <c r="AN32" s="11">
-        <v>18880</v>
+        <v>20214</v>
       </c>
       <c r="AO32" s="11">
-        <v>20878</v>
+        <v>20076</v>
       </c>
       <c r="AP32" s="11">
-        <v>20214</v>
+        <v>17766</v>
       </c>
       <c r="AQ32" s="11">
-        <v>20076</v>
+        <v>21824</v>
       </c>
       <c r="AR32" s="11">
-        <v>17766</v>
+        <v>20182</v>
       </c>
       <c r="AS32" s="11">
-        <v>21824</v>
+        <v>18371</v>
       </c>
       <c r="AT32" s="11">
-        <v>14892</v>
+        <v>23030</v>
       </c>
       <c r="AU32" s="11">
-        <v>18371</v>
+        <v>17877</v>
       </c>
       <c r="AV32" s="11">
-        <v>23030</v>
+        <v>22524</v>
       </c>
       <c r="AW32" s="11">
-        <v>17877</v>
+        <v>25657</v>
       </c>
       <c r="AX32" s="11">
-        <v>22524</v>
+        <v>27733</v>
       </c>
       <c r="AY32" s="11">
-        <v>25657</v>
+        <v>28732</v>
       </c>
       <c r="AZ32" s="11">
-        <v>27733</v>
+        <v>21757</v>
       </c>
       <c r="BA32" s="11">
-        <v>28732</v>
+        <v>22558</v>
       </c>
       <c r="BB32" s="11">
-        <v>21757</v>
+        <v>22047</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4267,104 +4267,104 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>171953</v>
+      </c>
+      <c r="X33" s="13">
+        <v>158348</v>
       </c>
       <c r="Y33" s="13">
-        <v>171953</v>
+        <v>150876</v>
       </c>
       <c r="Z33" s="13">
-        <v>158348</v>
+        <v>156400</v>
       </c>
       <c r="AA33" s="13">
-        <v>150876</v>
+        <v>209304</v>
       </c>
       <c r="AB33" s="13">
-        <v>156400</v>
+        <v>141379</v>
       </c>
       <c r="AC33" s="13">
-        <v>209304</v>
+        <v>129647</v>
       </c>
       <c r="AD33" s="13">
-        <v>141379</v>
+        <v>117928</v>
       </c>
       <c r="AE33" s="13">
-        <v>129647</v>
+        <v>129919</v>
       </c>
       <c r="AF33" s="13">
-        <v>117928</v>
+        <v>92070</v>
       </c>
       <c r="AG33" s="13">
-        <v>129919</v>
+        <v>137385</v>
       </c>
       <c r="AH33" s="13">
-        <v>92070</v>
+        <v>159155</v>
       </c>
       <c r="AI33" s="13">
-        <v>137385</v>
+        <v>124244</v>
       </c>
       <c r="AJ33" s="13">
-        <v>159155</v>
+        <v>90034</v>
       </c>
       <c r="AK33" s="13">
-        <v>124244</v>
+        <v>147875</v>
       </c>
       <c r="AL33" s="13">
-        <v>90034</v>
+        <v>146275</v>
       </c>
       <c r="AM33" s="13">
-        <v>147875</v>
+        <v>161714</v>
       </c>
       <c r="AN33" s="13">
-        <v>146275</v>
+        <v>167202</v>
       </c>
       <c r="AO33" s="13">
-        <v>161714</v>
+        <v>147237</v>
       </c>
       <c r="AP33" s="13">
-        <v>167202</v>
+        <v>146937</v>
       </c>
       <c r="AQ33" s="13">
-        <v>147237</v>
+        <v>170847</v>
       </c>
       <c r="AR33" s="13">
-        <v>146937</v>
+        <v>124668</v>
       </c>
       <c r="AS33" s="13">
-        <v>170847</v>
+        <v>156883</v>
       </c>
       <c r="AT33" s="13">
-        <v>124668</v>
+        <v>160445</v>
       </c>
       <c r="AU33" s="13">
-        <v>156883</v>
+        <v>130644</v>
       </c>
       <c r="AV33" s="13">
-        <v>160445</v>
+        <v>133425</v>
       </c>
       <c r="AW33" s="13">
-        <v>130644</v>
+        <v>180290</v>
       </c>
       <c r="AX33" s="13">
-        <v>133425</v>
+        <v>152750</v>
       </c>
       <c r="AY33" s="13">
-        <v>180290</v>
+        <v>174888</v>
       </c>
       <c r="AZ33" s="13">
-        <v>152750</v>
+        <v>205623</v>
       </c>
       <c r="BA33" s="13">
-        <v>174888</v>
+        <v>189069</v>
       </c>
       <c r="BB33" s="13">
-        <v>205623</v>
+        <v>180909</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4513,17 +4513,17 @@
       <c r="AY34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA34" s="11" t="s">
-        <v>58</v>
+      <c r="AZ34" s="11">
+        <v>315</v>
+      </c>
+      <c r="BA34" s="11">
+        <v>31020</v>
       </c>
       <c r="BB34" s="11">
-        <v>315</v>
+        <v>22616</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>73</v>
       </c>
@@ -4584,103 +4584,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>192096</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>180734</v>
       </c>
       <c r="Y35" s="15">
-        <v>192096</v>
+        <v>175222</v>
       </c>
       <c r="Z35" s="15">
-        <v>180734</v>
+        <v>176998</v>
       </c>
       <c r="AA35" s="15">
-        <v>175222</v>
+        <v>232333</v>
       </c>
       <c r="AB35" s="15">
-        <v>176998</v>
+        <v>166818</v>
       </c>
       <c r="AC35" s="15">
-        <v>232333</v>
+        <v>145865</v>
       </c>
       <c r="AD35" s="15">
-        <v>166818</v>
+        <v>139035</v>
       </c>
       <c r="AE35" s="15">
-        <v>145865</v>
+        <v>149065</v>
       </c>
       <c r="AF35" s="15">
-        <v>139035</v>
+        <v>108953</v>
       </c>
       <c r="AG35" s="15">
-        <v>149065</v>
+        <v>164296</v>
       </c>
       <c r="AH35" s="15">
-        <v>108953</v>
+        <v>181710</v>
       </c>
       <c r="AI35" s="15">
-        <v>164296</v>
+        <v>138033</v>
       </c>
       <c r="AJ35" s="15">
-        <v>181710</v>
+        <v>97889</v>
       </c>
       <c r="AK35" s="15">
-        <v>138033</v>
+        <v>163100</v>
       </c>
       <c r="AL35" s="15">
-        <v>97889</v>
+        <v>165155</v>
       </c>
       <c r="AM35" s="15">
-        <v>163100</v>
+        <v>182592</v>
       </c>
       <c r="AN35" s="15">
-        <v>165155</v>
+        <v>187416</v>
       </c>
       <c r="AO35" s="15">
-        <v>182592</v>
+        <v>167313</v>
       </c>
       <c r="AP35" s="15">
-        <v>187416</v>
+        <v>164703</v>
       </c>
       <c r="AQ35" s="15">
-        <v>167313</v>
+        <v>192671</v>
       </c>
       <c r="AR35" s="15">
-        <v>164703</v>
+        <v>144850</v>
       </c>
       <c r="AS35" s="15">
-        <v>192671</v>
+        <v>175253</v>
       </c>
       <c r="AT35" s="15">
-        <v>139560</v>
+        <v>183475</v>
       </c>
       <c r="AU35" s="15">
-        <v>175253</v>
+        <v>148521</v>
       </c>
       <c r="AV35" s="15">
-        <v>183475</v>
+        <v>155949</v>
       </c>
       <c r="AW35" s="15">
-        <v>148521</v>
+        <v>205947</v>
       </c>
       <c r="AX35" s="15">
-        <v>155949</v>
+        <v>180483</v>
       </c>
       <c r="AY35" s="15">
-        <v>205947</v>
+        <v>203620</v>
       </c>
       <c r="AZ35" s="15">
-        <v>180483</v>
+        <v>227695</v>
       </c>
       <c r="BA35" s="15">
-        <v>203620</v>
+        <v>242647</v>
       </c>
       <c r="BB35" s="15">
-        <v>227695</v>
+        <v>225572</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>74</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4826,77 +4826,77 @@
       <c r="AE37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG37" s="11" t="s">
-        <v>58</v>
+      <c r="AF37" s="11">
+        <v>6179</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>3190</v>
       </c>
       <c r="AH37" s="11">
-        <v>6179</v>
+        <v>5737</v>
       </c>
       <c r="AI37" s="11">
-        <v>3190</v>
+        <v>4470</v>
       </c>
       <c r="AJ37" s="11">
-        <v>5737</v>
+        <v>6135</v>
       </c>
       <c r="AK37" s="11">
-        <v>4470</v>
+        <v>2489</v>
       </c>
       <c r="AL37" s="11">
-        <v>6135</v>
+        <v>3403</v>
       </c>
       <c r="AM37" s="11">
-        <v>2489</v>
+        <v>6923</v>
       </c>
       <c r="AN37" s="11">
-        <v>3403</v>
+        <v>8274</v>
       </c>
       <c r="AO37" s="11">
-        <v>6923</v>
+        <v>4185</v>
       </c>
       <c r="AP37" s="11">
-        <v>8274</v>
+        <v>5149</v>
       </c>
       <c r="AQ37" s="11">
-        <v>4185</v>
+        <v>3389</v>
       </c>
       <c r="AR37" s="11">
-        <v>5149</v>
+        <v>6263</v>
       </c>
       <c r="AS37" s="11">
-        <v>3389</v>
+        <v>5712</v>
       </c>
       <c r="AT37" s="11">
-        <v>5290</v>
+        <v>8363</v>
       </c>
       <c r="AU37" s="11">
-        <v>5712</v>
+        <v>4910</v>
       </c>
       <c r="AV37" s="11">
-        <v>8363</v>
+        <v>6987</v>
       </c>
       <c r="AW37" s="11">
-        <v>4910</v>
+        <v>5311</v>
       </c>
       <c r="AX37" s="11">
-        <v>6987</v>
+        <v>5357</v>
       </c>
       <c r="AY37" s="11">
-        <v>5311</v>
+        <v>6294</v>
       </c>
       <c r="AZ37" s="11">
-        <v>5357</v>
+        <v>3499</v>
       </c>
       <c r="BA37" s="11">
-        <v>6294</v>
+        <v>4261</v>
       </c>
       <c r="BB37" s="11">
-        <v>3499</v>
+        <v>3883</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
@@ -4985,17 +4985,17 @@
       <c r="AE38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>58</v>
+      <c r="AF38" s="13">
+        <v>587</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>4412</v>
       </c>
       <c r="AH38" s="13">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="13">
         <v>0</v>
@@ -5010,13 +5010,13 @@
         <v>0</v>
       </c>
       <c r="AN38" s="13">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="AO38" s="13">
         <v>0</v>
       </c>
-      <c r="AP38" s="13">
-        <v>1118</v>
+      <c r="AP38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="13" t="s">
         <v>58</v>
@@ -5055,7 +5055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5117,11 +5117,11 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
       </c>
       <c r="Y39" s="11">
         <v>0</v>
@@ -5133,22 +5133,22 @@
         <v>0</v>
       </c>
       <c r="AB39" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AC39" s="11">
         <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="11">
         <v>0</v>
       </c>
-      <c r="AF39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
+      <c r="AF39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>58</v>
@@ -5174,14 +5174,14 @@
       <c r="AO39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="11" t="s">
-        <v>58</v>
+      <c r="AP39" s="11">
+        <v>4613</v>
       </c>
       <c r="AQ39" s="11">
         <v>0</v>
       </c>
       <c r="AR39" s="11">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="11">
         <v>0</v>
@@ -5208,13 +5208,13 @@
         <v>0</v>
       </c>
       <c r="BA39" s="11">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="BB39" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
@@ -5276,39 +5276,39 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>5759</v>
+      </c>
+      <c r="X40" s="13">
+        <v>5002</v>
       </c>
       <c r="Y40" s="13">
-        <v>5759</v>
+        <v>4146</v>
       </c>
       <c r="Z40" s="13">
-        <v>5002</v>
+        <v>5775</v>
       </c>
       <c r="AA40" s="13">
-        <v>4146</v>
+        <v>5183</v>
       </c>
       <c r="AB40" s="13">
-        <v>5775</v>
+        <v>5265</v>
       </c>
       <c r="AC40" s="13">
-        <v>5183</v>
+        <v>5682</v>
       </c>
       <c r="AD40" s="13">
-        <v>5265</v>
+        <v>5488</v>
       </c>
       <c r="AE40" s="13">
-        <v>5682</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AG40" s="13">
         <v>7856</v>
       </c>
+      <c r="AF40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH40" s="13" t="s">
         <v>58</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
@@ -5435,39 +5435,39 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>38739</v>
+      </c>
+      <c r="X41" s="11">
+        <v>17230</v>
       </c>
       <c r="Y41" s="11">
-        <v>38739</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AB41" s="11">
-        <v>0</v>
+        <v>36929</v>
       </c>
       <c r="AC41" s="11">
-        <v>10626</v>
+        <v>67415</v>
       </c>
       <c r="AD41" s="11">
-        <v>36929</v>
+        <v>62289</v>
       </c>
       <c r="AE41" s="11">
-        <v>67415</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>62289</v>
-      </c>
-      <c r="AG41" s="11">
         <v>20479</v>
       </c>
+      <c r="AF41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH41" s="11" t="s">
         <v>58</v>
       </c>
@@ -5492,11 +5492,11 @@
       <c r="AO41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="11" t="s">
-        <v>58</v>
+      <c r="AP41" s="11">
+        <v>0</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="11">
         <v>0</v>
@@ -5514,25 +5514,25 @@
         <v>0</v>
       </c>
       <c r="AW41" s="11">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AX41" s="11">
-        <v>0</v>
+        <v>28955</v>
       </c>
       <c r="AY41" s="11">
-        <v>2448</v>
+        <v>97568</v>
       </c>
       <c r="AZ41" s="11">
-        <v>28955</v>
+        <v>56085</v>
       </c>
       <c r="BA41" s="11">
-        <v>97568</v>
+        <v>73055</v>
       </c>
       <c r="BB41" s="11">
-        <v>56085</v>
+        <v>50067</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
@@ -5621,17 +5621,17 @@
       <c r="AE42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>58</v>
+      <c r="AF42" s="13">
+        <v>40166</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>121040</v>
       </c>
       <c r="AH42" s="13">
-        <v>40166</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="13">
-        <v>121040</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="13">
         <v>0</v>
@@ -5651,8 +5651,8 @@
       <c r="AO42" s="13">
         <v>0</v>
       </c>
-      <c r="AP42" s="13">
-        <v>0</v>
+      <c r="AP42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ42" s="13" t="s">
         <v>58</v>
@@ -5691,7 +5691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>75</v>
       </c>
@@ -5752,103 +5752,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="17">
-        <v>0</v>
+        <v>44498</v>
       </c>
       <c r="X43" s="17">
-        <v>0</v>
+        <v>22232</v>
       </c>
       <c r="Y43" s="17">
-        <v>44498</v>
+        <v>4146</v>
       </c>
       <c r="Z43" s="17">
-        <v>22232</v>
+        <v>5775</v>
       </c>
       <c r="AA43" s="17">
-        <v>4146</v>
+        <v>15809</v>
       </c>
       <c r="AB43" s="17">
-        <v>5775</v>
+        <v>42471</v>
       </c>
       <c r="AC43" s="17">
-        <v>15809</v>
+        <v>73097</v>
       </c>
       <c r="AD43" s="17">
-        <v>42471</v>
+        <v>67777</v>
       </c>
       <c r="AE43" s="17">
-        <v>73097</v>
+        <v>28335</v>
       </c>
       <c r="AF43" s="17">
-        <v>67777</v>
+        <v>46932</v>
       </c>
       <c r="AG43" s="17">
-        <v>28335</v>
+        <v>128642</v>
       </c>
       <c r="AH43" s="17">
-        <v>46932</v>
+        <v>5737</v>
       </c>
       <c r="AI43" s="17">
-        <v>128642</v>
+        <v>4470</v>
       </c>
       <c r="AJ43" s="17">
-        <v>5737</v>
+        <v>6135</v>
       </c>
       <c r="AK43" s="17">
-        <v>4470</v>
+        <v>2489</v>
       </c>
       <c r="AL43" s="17">
-        <v>6135</v>
+        <v>3403</v>
       </c>
       <c r="AM43" s="17">
-        <v>2489</v>
+        <v>6923</v>
       </c>
       <c r="AN43" s="17">
-        <v>3403</v>
+        <v>9391</v>
       </c>
       <c r="AO43" s="17">
-        <v>6923</v>
+        <v>4185</v>
       </c>
       <c r="AP43" s="17">
-        <v>9391</v>
+        <v>9762</v>
       </c>
       <c r="AQ43" s="17">
-        <v>4184</v>
+        <v>3389</v>
       </c>
       <c r="AR43" s="17">
-        <v>9762</v>
+        <v>6263</v>
       </c>
       <c r="AS43" s="17">
-        <v>3389</v>
+        <v>5712</v>
       </c>
       <c r="AT43" s="17">
-        <v>5290</v>
+        <v>8363</v>
       </c>
       <c r="AU43" s="17">
-        <v>5712</v>
+        <v>4910</v>
       </c>
       <c r="AV43" s="17">
-        <v>8363</v>
+        <v>6987</v>
       </c>
       <c r="AW43" s="17">
-        <v>4910</v>
+        <v>7759</v>
       </c>
       <c r="AX43" s="17">
-        <v>6987</v>
+        <v>34312</v>
       </c>
       <c r="AY43" s="17">
-        <v>7759</v>
+        <v>103862</v>
       </c>
       <c r="AZ43" s="17">
-        <v>34312</v>
+        <v>59584</v>
       </c>
       <c r="BA43" s="17">
-        <v>103862</v>
+        <v>77721</v>
       </c>
       <c r="BB43" s="17">
-        <v>59584</v>
+        <v>53950</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>68</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="BA44" s="19"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>69</v>
       </c>
@@ -5965,11 +5965,11 @@
       <c r="V45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>58</v>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
       </c>
       <c r="Y45" s="17">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>76</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>77</v>
       </c>
@@ -6179,11 +6179,11 @@
       <c r="V47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>58</v>
+      <c r="W47" s="17">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17">
+        <v>0</v>
       </c>
       <c r="Y47" s="17">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>70</v>
       </c>
@@ -6337,103 +6337,103 @@
         <v>0</v>
       </c>
       <c r="W48" s="15">
-        <v>0</v>
+        <v>236594</v>
       </c>
       <c r="X48" s="15">
-        <v>0</v>
+        <v>202966</v>
       </c>
       <c r="Y48" s="15">
-        <v>236594</v>
+        <v>179368</v>
       </c>
       <c r="Z48" s="15">
-        <v>202966</v>
+        <v>182773</v>
       </c>
       <c r="AA48" s="15">
-        <v>179368</v>
+        <v>248142</v>
       </c>
       <c r="AB48" s="15">
-        <v>182773</v>
+        <v>209289</v>
       </c>
       <c r="AC48" s="15">
-        <v>248142</v>
+        <v>218962</v>
       </c>
       <c r="AD48" s="15">
-        <v>209289</v>
+        <v>206812</v>
       </c>
       <c r="AE48" s="15">
-        <v>218962</v>
+        <v>177400</v>
       </c>
       <c r="AF48" s="15">
-        <v>206812</v>
+        <v>155885</v>
       </c>
       <c r="AG48" s="15">
-        <v>177400</v>
+        <v>292938</v>
       </c>
       <c r="AH48" s="15">
-        <v>155885</v>
+        <v>187447</v>
       </c>
       <c r="AI48" s="15">
-        <v>292938</v>
+        <v>142504</v>
       </c>
       <c r="AJ48" s="15">
-        <v>187447</v>
+        <v>104024</v>
       </c>
       <c r="AK48" s="15">
-        <v>142504</v>
+        <v>165589</v>
       </c>
       <c r="AL48" s="15">
-        <v>104024</v>
+        <v>168559</v>
       </c>
       <c r="AM48" s="15">
-        <v>165589</v>
+        <v>189515</v>
       </c>
       <c r="AN48" s="15">
-        <v>168559</v>
+        <v>196808</v>
       </c>
       <c r="AO48" s="15">
-        <v>189515</v>
+        <v>171498</v>
       </c>
       <c r="AP48" s="15">
-        <v>196808</v>
+        <v>174465</v>
       </c>
       <c r="AQ48" s="15">
-        <v>171497</v>
+        <v>196060</v>
       </c>
       <c r="AR48" s="15">
-        <v>174465</v>
+        <v>151113</v>
       </c>
       <c r="AS48" s="15">
-        <v>196060</v>
+        <v>180965</v>
       </c>
       <c r="AT48" s="15">
-        <v>144850</v>
+        <v>191838</v>
       </c>
       <c r="AU48" s="15">
-        <v>180965</v>
+        <v>153431</v>
       </c>
       <c r="AV48" s="15">
-        <v>191838</v>
+        <v>162936</v>
       </c>
       <c r="AW48" s="15">
-        <v>153431</v>
+        <v>213706</v>
       </c>
       <c r="AX48" s="15">
-        <v>162936</v>
+        <v>214795</v>
       </c>
       <c r="AY48" s="15">
-        <v>213706</v>
+        <v>307482</v>
       </c>
       <c r="AZ48" s="15">
-        <v>214795</v>
+        <v>287279</v>
       </c>
       <c r="BA48" s="15">
-        <v>307482</v>
+        <v>320368</v>
       </c>
       <c r="BB48" s="15">
-        <v>287279</v>
+        <v>279522</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6488,7 +6488,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6543,7 +6543,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6598,7 +6598,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>78</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6810,7 +6810,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6929,104 +6929,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>89345</v>
+      </c>
+      <c r="X55" s="11">
+        <v>104936</v>
       </c>
       <c r="Y55" s="11">
-        <v>89345</v>
+        <v>116390</v>
       </c>
       <c r="Z55" s="11">
-        <v>104936</v>
+        <v>99437</v>
       </c>
       <c r="AA55" s="11">
-        <v>116390</v>
+        <v>117329</v>
       </c>
       <c r="AB55" s="11">
-        <v>99437</v>
+        <v>131846</v>
       </c>
       <c r="AC55" s="11">
-        <v>117329</v>
+        <v>83934</v>
       </c>
       <c r="AD55" s="11">
-        <v>131846</v>
+        <v>109324</v>
       </c>
       <c r="AE55" s="11">
-        <v>83934</v>
+        <v>98840</v>
       </c>
       <c r="AF55" s="11">
-        <v>109324</v>
+        <v>105760</v>
       </c>
       <c r="AG55" s="11">
-        <v>98840</v>
+        <v>185724</v>
       </c>
       <c r="AH55" s="11">
-        <v>105760</v>
+        <v>159861</v>
       </c>
       <c r="AI55" s="11">
-        <v>185724</v>
+        <v>116022</v>
       </c>
       <c r="AJ55" s="11">
-        <v>159861</v>
+        <v>76546</v>
       </c>
       <c r="AK55" s="11">
-        <v>116022</v>
+        <v>198028</v>
       </c>
       <c r="AL55" s="11">
-        <v>76546</v>
+        <v>225186</v>
       </c>
       <c r="AM55" s="11">
-        <v>198028</v>
+        <v>210885</v>
       </c>
       <c r="AN55" s="11">
-        <v>225186</v>
+        <v>195832</v>
       </c>
       <c r="AO55" s="11">
-        <v>210885</v>
+        <v>182453</v>
       </c>
       <c r="AP55" s="11">
-        <v>195832</v>
+        <v>164581</v>
       </c>
       <c r="AQ55" s="11">
-        <v>182453</v>
+        <v>227713</v>
       </c>
       <c r="AR55" s="11">
-        <v>164581</v>
+        <v>162880</v>
       </c>
       <c r="AS55" s="11">
-        <v>227713</v>
+        <v>211642</v>
       </c>
       <c r="AT55" s="11">
-        <v>162880</v>
+        <v>299192</v>
       </c>
       <c r="AU55" s="11">
-        <v>211642</v>
+        <v>293138</v>
       </c>
       <c r="AV55" s="11">
-        <v>299192</v>
+        <v>342997</v>
       </c>
       <c r="AW55" s="11">
-        <v>293138</v>
+        <v>374343</v>
       </c>
       <c r="AX55" s="11">
-        <v>342997</v>
+        <v>323984</v>
       </c>
       <c r="AY55" s="11">
-        <v>374343</v>
+        <v>352689</v>
       </c>
       <c r="AZ55" s="11">
-        <v>323984</v>
+        <v>334059</v>
       </c>
       <c r="BA55" s="11">
-        <v>352689</v>
+        <v>317756</v>
       </c>
       <c r="BB55" s="11">
-        <v>334059</v>
+        <v>324728</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7088,104 +7088,104 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>363783</v>
+      </c>
+      <c r="X56" s="13">
+        <v>376275</v>
       </c>
       <c r="Y56" s="13">
-        <v>363783</v>
+        <v>359067</v>
       </c>
       <c r="Z56" s="13">
-        <v>376275</v>
+        <v>378334</v>
       </c>
       <c r="AA56" s="13">
-        <v>359067</v>
+        <v>534901</v>
       </c>
       <c r="AB56" s="13">
-        <v>378334</v>
+        <v>355004</v>
       </c>
       <c r="AC56" s="13">
-        <v>534901</v>
+        <v>328996</v>
       </c>
       <c r="AD56" s="13">
-        <v>355004</v>
+        <v>295609</v>
       </c>
       <c r="AE56" s="13">
-        <v>328996</v>
+        <v>331053</v>
       </c>
       <c r="AF56" s="13">
-        <v>295609</v>
+        <v>252271</v>
       </c>
       <c r="AG56" s="13">
-        <v>331053</v>
+        <v>490846</v>
       </c>
       <c r="AH56" s="13">
-        <v>252271</v>
+        <v>565164</v>
       </c>
       <c r="AI56" s="13">
-        <v>490846</v>
+        <v>536861</v>
       </c>
       <c r="AJ56" s="13">
-        <v>565164</v>
+        <v>539113</v>
       </c>
       <c r="AK56" s="13">
-        <v>536861</v>
+        <v>955486</v>
       </c>
       <c r="AL56" s="13">
-        <v>539113</v>
+        <v>669700</v>
       </c>
       <c r="AM56" s="13">
-        <v>955486</v>
+        <v>719700</v>
       </c>
       <c r="AN56" s="13">
-        <v>669700</v>
+        <v>799824</v>
       </c>
       <c r="AO56" s="13">
-        <v>719700</v>
+        <v>693602</v>
       </c>
       <c r="AP56" s="13">
-        <v>799824</v>
+        <v>667009</v>
       </c>
       <c r="AQ56" s="13">
-        <v>693602</v>
+        <v>863788</v>
       </c>
       <c r="AR56" s="13">
-        <v>667009</v>
+        <v>625079</v>
       </c>
       <c r="AS56" s="13">
-        <v>863788</v>
+        <v>774630</v>
       </c>
       <c r="AT56" s="13">
-        <v>625079</v>
+        <v>1039274</v>
       </c>
       <c r="AU56" s="13">
-        <v>774630</v>
+        <v>1072318</v>
       </c>
       <c r="AV56" s="13">
-        <v>1039274</v>
+        <v>1020364</v>
       </c>
       <c r="AW56" s="13">
-        <v>1072318</v>
+        <v>1257899</v>
       </c>
       <c r="AX56" s="13">
-        <v>1020364</v>
+        <v>1043249</v>
       </c>
       <c r="AY56" s="13">
-        <v>1257899</v>
+        <v>1152788</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1043249</v>
+        <v>1293920</v>
       </c>
       <c r="BA56" s="13">
-        <v>1152788</v>
+        <v>1166046</v>
       </c>
       <c r="BB56" s="13">
-        <v>1293920</v>
+        <v>1224621</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7334,17 +7334,17 @@
       <c r="AY57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA57" s="11" t="s">
-        <v>58</v>
+      <c r="AZ57" s="11">
+        <v>1009</v>
+      </c>
+      <c r="BA57" s="11">
+        <v>99264</v>
       </c>
       <c r="BB57" s="11">
-        <v>1009</v>
+        <v>72370</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>73</v>
       </c>
@@ -7405,103 +7405,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>453128</v>
       </c>
       <c r="X58" s="15">
-        <v>0</v>
+        <v>481211</v>
       </c>
       <c r="Y58" s="15">
-        <v>453128</v>
+        <v>475457</v>
       </c>
       <c r="Z58" s="15">
-        <v>481211</v>
+        <v>477771</v>
       </c>
       <c r="AA58" s="15">
-        <v>475457</v>
+        <v>652230</v>
       </c>
       <c r="AB58" s="15">
-        <v>477771</v>
+        <v>486850</v>
       </c>
       <c r="AC58" s="15">
-        <v>652230</v>
+        <v>412930</v>
       </c>
       <c r="AD58" s="15">
-        <v>486850</v>
+        <v>404933</v>
       </c>
       <c r="AE58" s="15">
-        <v>412930</v>
+        <v>429893</v>
       </c>
       <c r="AF58" s="15">
-        <v>404933</v>
+        <v>358031</v>
       </c>
       <c r="AG58" s="15">
-        <v>429893</v>
+        <v>676570</v>
       </c>
       <c r="AH58" s="15">
-        <v>358031</v>
+        <v>725025</v>
       </c>
       <c r="AI58" s="15">
-        <v>676570</v>
+        <v>652883</v>
       </c>
       <c r="AJ58" s="15">
-        <v>725025</v>
+        <v>615659</v>
       </c>
       <c r="AK58" s="15">
-        <v>652883</v>
+        <v>1153514</v>
       </c>
       <c r="AL58" s="15">
-        <v>615659</v>
+        <v>894886</v>
       </c>
       <c r="AM58" s="15">
-        <v>1153514</v>
+        <v>930585</v>
       </c>
       <c r="AN58" s="15">
-        <v>894886</v>
+        <v>995656</v>
       </c>
       <c r="AO58" s="15">
-        <v>930585</v>
+        <v>876055</v>
       </c>
       <c r="AP58" s="15">
-        <v>995656</v>
+        <v>831590</v>
       </c>
       <c r="AQ58" s="15">
-        <v>876055</v>
+        <v>1091501</v>
       </c>
       <c r="AR58" s="15">
-        <v>831590</v>
+        <v>787959</v>
       </c>
       <c r="AS58" s="15">
-        <v>1091501</v>
+        <v>986272</v>
       </c>
       <c r="AT58" s="15">
-        <v>787959</v>
+        <v>1338466</v>
       </c>
       <c r="AU58" s="15">
-        <v>986272</v>
+        <v>1365456</v>
       </c>
       <c r="AV58" s="15">
-        <v>1338466</v>
+        <v>1363361</v>
       </c>
       <c r="AW58" s="15">
-        <v>1365456</v>
+        <v>1632242</v>
       </c>
       <c r="AX58" s="15">
-        <v>1363361</v>
+        <v>1367233</v>
       </c>
       <c r="AY58" s="15">
-        <v>1632242</v>
+        <v>1505477</v>
       </c>
       <c r="AZ58" s="15">
-        <v>1367233</v>
+        <v>1628988</v>
       </c>
       <c r="BA58" s="15">
-        <v>1505477</v>
+        <v>1583066</v>
       </c>
       <c r="BB58" s="15">
-        <v>1628988</v>
+        <v>1621719</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>81</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
@@ -7647,77 +7647,77 @@
       <c r="AE60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG60" s="11" t="s">
-        <v>58</v>
+      <c r="AF60" s="11">
+        <v>61426</v>
+      </c>
+      <c r="AG60" s="11">
+        <v>34048</v>
       </c>
       <c r="AH60" s="11">
-        <v>61426</v>
+        <v>59134</v>
       </c>
       <c r="AI60" s="11">
-        <v>34048</v>
+        <v>50776</v>
       </c>
       <c r="AJ60" s="11">
-        <v>59134</v>
+        <v>72698</v>
       </c>
       <c r="AK60" s="11">
-        <v>50776</v>
+        <v>29961</v>
       </c>
       <c r="AL60" s="11">
-        <v>72698</v>
+        <v>42185</v>
       </c>
       <c r="AM60" s="11">
-        <v>29961</v>
+        <v>96784</v>
       </c>
       <c r="AN60" s="11">
-        <v>42185</v>
+        <v>116325</v>
       </c>
       <c r="AO60" s="11">
-        <v>96784</v>
+        <v>55543</v>
       </c>
       <c r="AP60" s="11">
-        <v>116325</v>
+        <v>65552</v>
       </c>
       <c r="AQ60" s="11">
-        <v>55543</v>
+        <v>42148</v>
       </c>
       <c r="AR60" s="11">
-        <v>65552</v>
+        <v>72724</v>
       </c>
       <c r="AS60" s="11">
-        <v>42148</v>
+        <v>85466</v>
       </c>
       <c r="AT60" s="11">
-        <v>72724</v>
+        <v>144726</v>
       </c>
       <c r="AU60" s="11">
-        <v>85466</v>
+        <v>97143</v>
       </c>
       <c r="AV60" s="11">
-        <v>144726</v>
+        <v>139054</v>
       </c>
       <c r="AW60" s="11">
-        <v>97143</v>
+        <v>104344</v>
       </c>
       <c r="AX60" s="11">
-        <v>139054</v>
+        <v>103435</v>
       </c>
       <c r="AY60" s="11">
-        <v>104344</v>
+        <v>124350</v>
       </c>
       <c r="AZ60" s="11">
-        <v>103435</v>
+        <v>70889</v>
       </c>
       <c r="BA60" s="11">
-        <v>124350</v>
+        <v>87011</v>
       </c>
       <c r="BB60" s="11">
-        <v>70889</v>
+        <v>79307</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>63</v>
       </c>
@@ -7806,17 +7806,17 @@
       <c r="AE61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG61" s="13" t="s">
-        <v>58</v>
+      <c r="AF61" s="13">
+        <v>5455</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>40352</v>
       </c>
       <c r="AH61" s="13">
-        <v>5455</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="13">
-        <v>40352</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="13">
         <v>0</v>
@@ -7831,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="AN61" s="13">
-        <v>0</v>
+        <v>14108</v>
       </c>
       <c r="AO61" s="13">
         <v>0</v>
       </c>
-      <c r="AP61" s="13">
-        <v>14108</v>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
@@ -7876,7 +7876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>64</v>
       </c>
@@ -7938,11 +7938,11 @@
       <c r="V62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="11" t="s">
-        <v>58</v>
+      <c r="W62" s="11">
+        <v>0</v>
+      </c>
+      <c r="X62" s="11">
+        <v>0</v>
       </c>
       <c r="Y62" s="11">
         <v>0</v>
@@ -7954,22 +7954,22 @@
         <v>0</v>
       </c>
       <c r="AB62" s="11">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="AC62" s="11">
         <v>0</v>
       </c>
       <c r="AD62" s="11">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="11">
         <v>0</v>
       </c>
-      <c r="AF62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="11">
-        <v>0</v>
+      <c r="AF62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH62" s="11" t="s">
         <v>58</v>
@@ -7995,14 +7995,14 @@
       <c r="AO62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP62" s="11" t="s">
-        <v>58</v>
+      <c r="AP62" s="11">
+        <v>51026</v>
       </c>
       <c r="AQ62" s="11">
         <v>0</v>
       </c>
       <c r="AR62" s="11">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="11">
         <v>0</v>
@@ -8029,13 +8029,13 @@
         <v>0</v>
       </c>
       <c r="BA62" s="11">
-        <v>0</v>
+        <v>6529</v>
       </c>
       <c r="BB62" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>65</v>
       </c>
@@ -8097,39 +8097,39 @@
       <c r="V63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>58</v>
+      <c r="W63" s="13">
+        <v>45458</v>
+      </c>
+      <c r="X63" s="13">
+        <v>45558</v>
       </c>
       <c r="Y63" s="13">
-        <v>45458</v>
+        <v>39157</v>
       </c>
       <c r="Z63" s="13">
-        <v>45558</v>
+        <v>62886</v>
       </c>
       <c r="AA63" s="13">
-        <v>39157</v>
+        <v>59124</v>
       </c>
       <c r="AB63" s="13">
-        <v>62886</v>
+        <v>60297</v>
       </c>
       <c r="AC63" s="13">
-        <v>59124</v>
+        <v>61127</v>
       </c>
       <c r="AD63" s="13">
-        <v>60297</v>
+        <v>56456</v>
       </c>
       <c r="AE63" s="13">
-        <v>61127</v>
-      </c>
-      <c r="AF63" s="13">
-        <v>56456</v>
-      </c>
-      <c r="AG63" s="13">
         <v>80043</v>
       </c>
+      <c r="AF63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG63" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH63" s="13" t="s">
         <v>58</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>60</v>
       </c>
@@ -8256,39 +8256,39 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>116074</v>
+      </c>
+      <c r="X64" s="11">
+        <v>61457</v>
       </c>
       <c r="Y64" s="11">
-        <v>116074</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="11">
-        <v>61457</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="11">
-        <v>0</v>
+        <v>45154</v>
       </c>
       <c r="AB64" s="11">
-        <v>0</v>
+        <v>157142</v>
       </c>
       <c r="AC64" s="11">
-        <v>45154</v>
+        <v>295990</v>
       </c>
       <c r="AD64" s="11">
-        <v>157142</v>
+        <v>263674</v>
       </c>
       <c r="AE64" s="11">
-        <v>295990</v>
-      </c>
-      <c r="AF64" s="11">
-        <v>263674</v>
-      </c>
-      <c r="AG64" s="11">
         <v>89605</v>
       </c>
+      <c r="AF64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG64" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH64" s="11" t="s">
         <v>58</v>
       </c>
@@ -8313,8 +8313,8 @@
       <c r="AO64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP64" s="11" t="s">
-        <v>58</v>
+      <c r="AP64" s="11">
+        <v>0</v>
       </c>
       <c r="AQ64" s="11">
         <v>0</v>
@@ -8335,25 +8335,25 @@
         <v>0</v>
       </c>
       <c r="AW64" s="11">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="AX64" s="11">
-        <v>0</v>
+        <v>240180</v>
       </c>
       <c r="AY64" s="11">
-        <v>20305</v>
+        <v>812608</v>
       </c>
       <c r="AZ64" s="11">
-        <v>240180</v>
+        <v>475766</v>
       </c>
       <c r="BA64" s="11">
-        <v>812608</v>
+        <v>637312</v>
       </c>
       <c r="BB64" s="11">
-        <v>475766</v>
+        <v>440513</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
@@ -8442,17 +8442,17 @@
       <c r="AE65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG65" s="13" t="s">
-        <v>58</v>
+      <c r="AF65" s="13">
+        <v>176054</v>
+      </c>
+      <c r="AG65" s="13">
+        <v>535629</v>
       </c>
       <c r="AH65" s="13">
-        <v>176054</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="13">
-        <v>535629</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="13">
         <v>0</v>
@@ -8472,8 +8472,8 @@
       <c r="AO65" s="13">
         <v>0</v>
       </c>
-      <c r="AP65" s="13">
-        <v>0</v>
+      <c r="AP65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ65" s="13" t="s">
         <v>58</v>
@@ -8512,7 +8512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>75</v>
       </c>
@@ -8573,103 +8573,103 @@
         <v>0</v>
       </c>
       <c r="W66" s="17">
-        <v>0</v>
+        <v>161532</v>
       </c>
       <c r="X66" s="17">
-        <v>0</v>
+        <v>107015</v>
       </c>
       <c r="Y66" s="17">
-        <v>161532</v>
+        <v>39157</v>
       </c>
       <c r="Z66" s="17">
-        <v>107015</v>
+        <v>62886</v>
       </c>
       <c r="AA66" s="17">
-        <v>39157</v>
+        <v>104278</v>
       </c>
       <c r="AB66" s="17">
-        <v>62886</v>
+        <v>220030</v>
       </c>
       <c r="AC66" s="17">
-        <v>104278</v>
+        <v>357117</v>
       </c>
       <c r="AD66" s="17">
-        <v>220030</v>
+        <v>320130</v>
       </c>
       <c r="AE66" s="17">
-        <v>357117</v>
+        <v>169648</v>
       </c>
       <c r="AF66" s="17">
-        <v>320130</v>
+        <v>242935</v>
       </c>
       <c r="AG66" s="17">
-        <v>169648</v>
+        <v>610029</v>
       </c>
       <c r="AH66" s="17">
-        <v>242935</v>
+        <v>59134</v>
       </c>
       <c r="AI66" s="17">
-        <v>610029</v>
+        <v>50776</v>
       </c>
       <c r="AJ66" s="17">
-        <v>59134</v>
+        <v>72698</v>
       </c>
       <c r="AK66" s="17">
-        <v>50776</v>
+        <v>29961</v>
       </c>
       <c r="AL66" s="17">
-        <v>72698</v>
+        <v>42185</v>
       </c>
       <c r="AM66" s="17">
-        <v>29961</v>
+        <v>96784</v>
       </c>
       <c r="AN66" s="17">
-        <v>42185</v>
+        <v>130433</v>
       </c>
       <c r="AO66" s="17">
-        <v>96784</v>
+        <v>55543</v>
       </c>
       <c r="AP66" s="17">
-        <v>130433</v>
+        <v>116578</v>
       </c>
       <c r="AQ66" s="17">
-        <v>55543</v>
+        <v>42148</v>
       </c>
       <c r="AR66" s="17">
-        <v>116578</v>
+        <v>72724</v>
       </c>
       <c r="AS66" s="17">
-        <v>42148</v>
+        <v>85466</v>
       </c>
       <c r="AT66" s="17">
-        <v>72724</v>
+        <v>144726</v>
       </c>
       <c r="AU66" s="17">
-        <v>85466</v>
+        <v>97143</v>
       </c>
       <c r="AV66" s="17">
-        <v>144726</v>
+        <v>139054</v>
       </c>
       <c r="AW66" s="17">
-        <v>97143</v>
+        <v>124649</v>
       </c>
       <c r="AX66" s="17">
-        <v>139054</v>
+        <v>343615</v>
       </c>
       <c r="AY66" s="17">
-        <v>124649</v>
+        <v>936958</v>
       </c>
       <c r="AZ66" s="17">
-        <v>343615</v>
+        <v>546655</v>
       </c>
       <c r="BA66" s="17">
-        <v>936958</v>
+        <v>730852</v>
       </c>
       <c r="BB66" s="17">
-        <v>546655</v>
+        <v>519820</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>82</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="BA67" s="19"/>
       <c r="BB67" s="19"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>69</v>
       </c>
@@ -8788,11 +8788,11 @@
       <c r="V68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="17" t="s">
-        <v>58</v>
+      <c r="W68" s="17">
+        <v>0</v>
+      </c>
+      <c r="X68" s="17">
+        <v>0</v>
       </c>
       <c r="Y68" s="17">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>83</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>77</v>
       </c>
@@ -9004,11 +9004,11 @@
       <c r="V70" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="17" t="s">
-        <v>58</v>
+      <c r="W70" s="17">
+        <v>0</v>
+      </c>
+      <c r="X70" s="17">
+        <v>0</v>
       </c>
       <c r="Y70" s="17">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>84</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>85</v>
       </c>
@@ -9220,11 +9220,11 @@
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>58</v>
+      <c r="W72" s="11">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>70</v>
       </c>
@@ -9378,103 +9378,103 @@
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>614660</v>
       </c>
       <c r="X73" s="15">
-        <v>0</v>
+        <v>588226</v>
       </c>
       <c r="Y73" s="15">
-        <v>614660</v>
+        <v>514614</v>
       </c>
       <c r="Z73" s="15">
-        <v>588226</v>
+        <v>540657</v>
       </c>
       <c r="AA73" s="15">
-        <v>514614</v>
+        <v>756508</v>
       </c>
       <c r="AB73" s="15">
-        <v>540657</v>
+        <v>706880</v>
       </c>
       <c r="AC73" s="15">
-        <v>756508</v>
+        <v>770047</v>
       </c>
       <c r="AD73" s="15">
-        <v>706880</v>
+        <v>725063</v>
       </c>
       <c r="AE73" s="15">
-        <v>770047</v>
+        <v>599541</v>
       </c>
       <c r="AF73" s="15">
-        <v>725063</v>
+        <v>600966</v>
       </c>
       <c r="AG73" s="15">
-        <v>599541</v>
+        <v>1286599</v>
       </c>
       <c r="AH73" s="15">
-        <v>600966</v>
+        <v>784159</v>
       </c>
       <c r="AI73" s="15">
-        <v>1286599</v>
+        <v>703659</v>
       </c>
       <c r="AJ73" s="15">
-        <v>784159</v>
+        <v>688357</v>
       </c>
       <c r="AK73" s="15">
-        <v>703659</v>
+        <v>1183475</v>
       </c>
       <c r="AL73" s="15">
-        <v>688357</v>
+        <v>937071</v>
       </c>
       <c r="AM73" s="15">
-        <v>1183475</v>
+        <v>1027369</v>
       </c>
       <c r="AN73" s="15">
-        <v>937071</v>
+        <v>1126089</v>
       </c>
       <c r="AO73" s="15">
-        <v>1027369</v>
+        <v>931598</v>
       </c>
       <c r="AP73" s="15">
-        <v>1126089</v>
+        <v>948168</v>
       </c>
       <c r="AQ73" s="15">
-        <v>931598</v>
+        <v>1133649</v>
       </c>
       <c r="AR73" s="15">
-        <v>948168</v>
+        <v>860683</v>
       </c>
       <c r="AS73" s="15">
-        <v>1133649</v>
+        <v>1071738</v>
       </c>
       <c r="AT73" s="15">
-        <v>860683</v>
+        <v>1483192</v>
       </c>
       <c r="AU73" s="15">
-        <v>1071738</v>
+        <v>1462599</v>
       </c>
       <c r="AV73" s="15">
-        <v>1483192</v>
+        <v>1502415</v>
       </c>
       <c r="AW73" s="15">
-        <v>1462599</v>
+        <v>1756891</v>
       </c>
       <c r="AX73" s="15">
-        <v>1502415</v>
+        <v>1710848</v>
       </c>
       <c r="AY73" s="15">
-        <v>1756891</v>
+        <v>2442435</v>
       </c>
       <c r="AZ73" s="15">
-        <v>1710848</v>
+        <v>2175643</v>
       </c>
       <c r="BA73" s="15">
-        <v>2442435</v>
+        <v>2313918</v>
       </c>
       <c r="BB73" s="15">
-        <v>2175643</v>
+        <v>2141539</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9529,7 +9529,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9584,7 +9584,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9639,7 +9639,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>86</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9851,7 +9851,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>87</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
@@ -9970,104 +9970,104 @@
       <c r="V80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>58</v>
+      <c r="W80" s="11">
+        <v>4435536</v>
+      </c>
+      <c r="X80" s="11">
+        <v>4687573</v>
       </c>
       <c r="Y80" s="11">
-        <v>4435536</v>
+        <v>4780662</v>
       </c>
       <c r="Z80" s="11">
-        <v>4687573</v>
+        <v>4827508</v>
       </c>
       <c r="AA80" s="11">
-        <v>4780662</v>
+        <v>5094837</v>
       </c>
       <c r="AB80" s="11">
-        <v>4827508</v>
+        <v>5182830</v>
       </c>
       <c r="AC80" s="11">
-        <v>5094837</v>
+        <v>5175361</v>
       </c>
       <c r="AD80" s="11">
-        <v>5182830</v>
+        <v>5179514</v>
       </c>
       <c r="AE80" s="11">
-        <v>5175361</v>
+        <v>5162436</v>
       </c>
       <c r="AF80" s="11">
-        <v>5179514</v>
+        <v>6264290</v>
       </c>
       <c r="AG80" s="11">
-        <v>5162436</v>
+        <v>6901416</v>
       </c>
       <c r="AH80" s="11">
-        <v>6264290</v>
+        <v>7087608</v>
       </c>
       <c r="AI80" s="11">
-        <v>6901416</v>
+        <v>8413854</v>
       </c>
       <c r="AJ80" s="11">
-        <v>7087608</v>
+        <v>9744876</v>
       </c>
       <c r="AK80" s="11">
-        <v>8413854</v>
+        <v>13006116</v>
       </c>
       <c r="AL80" s="11">
-        <v>9744876</v>
+        <v>11926972</v>
       </c>
       <c r="AM80" s="11">
-        <v>13006116</v>
+        <v>10100824</v>
       </c>
       <c r="AN80" s="11">
-        <v>11926972</v>
+        <v>9687824</v>
       </c>
       <c r="AO80" s="11">
-        <v>10100824</v>
+        <v>9088115</v>
       </c>
       <c r="AP80" s="11">
-        <v>9687824</v>
+        <v>9263819</v>
       </c>
       <c r="AQ80" s="11">
-        <v>9088115</v>
+        <v>10434063</v>
       </c>
       <c r="AR80" s="11">
-        <v>9263819</v>
+        <v>8070558</v>
       </c>
       <c r="AS80" s="11">
-        <v>10434063</v>
+        <v>11520753</v>
       </c>
       <c r="AT80" s="11">
-        <v>10937416</v>
+        <v>12991403</v>
       </c>
       <c r="AU80" s="11">
-        <v>11520753</v>
+        <v>16397494</v>
       </c>
       <c r="AV80" s="11">
-        <v>12991403</v>
+        <v>15228068</v>
       </c>
       <c r="AW80" s="11">
-        <v>16397494</v>
+        <v>14590287</v>
       </c>
       <c r="AX80" s="11">
-        <v>15228068</v>
+        <v>11682256</v>
       </c>
       <c r="AY80" s="11">
-        <v>14590287</v>
+        <v>12275129</v>
       </c>
       <c r="AZ80" s="11">
-        <v>11682256</v>
+        <v>15354093</v>
       </c>
       <c r="BA80" s="11">
-        <v>12275129</v>
+        <v>14086178</v>
       </c>
       <c r="BB80" s="11">
-        <v>15354093</v>
+        <v>14728897</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>59</v>
       </c>
@@ -10129,104 +10129,104 @@
       <c r="V81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="13" t="s">
-        <v>58</v>
+      <c r="W81" s="13">
+        <v>2115596</v>
+      </c>
+      <c r="X81" s="13">
+        <v>2376254</v>
       </c>
       <c r="Y81" s="13">
-        <v>2115596</v>
+        <v>2379881</v>
       </c>
       <c r="Z81" s="13">
-        <v>2376254</v>
+        <v>2419015</v>
       </c>
       <c r="AA81" s="13">
-        <v>2379881</v>
+        <v>2555618</v>
       </c>
       <c r="AB81" s="13">
-        <v>2419015</v>
+        <v>2511009</v>
       </c>
       <c r="AC81" s="13">
-        <v>2555618</v>
+        <v>2537629</v>
       </c>
       <c r="AD81" s="13">
-        <v>2511009</v>
+        <v>2506691</v>
       </c>
       <c r="AE81" s="13">
-        <v>2537629</v>
+        <v>2548149</v>
       </c>
       <c r="AF81" s="13">
-        <v>2506691</v>
+        <v>2739991</v>
       </c>
       <c r="AG81" s="13">
-        <v>2548149</v>
+        <v>3572777</v>
       </c>
       <c r="AH81" s="13">
-        <v>2739991</v>
+        <v>3551029</v>
       </c>
       <c r="AI81" s="13">
-        <v>3572777</v>
+        <v>4321022</v>
       </c>
       <c r="AJ81" s="13">
-        <v>3551029</v>
+        <v>5987882</v>
       </c>
       <c r="AK81" s="13">
-        <v>4321022</v>
+        <v>6461456</v>
       </c>
       <c r="AL81" s="13">
-        <v>5987882</v>
+        <v>4578363</v>
       </c>
       <c r="AM81" s="13">
-        <v>6461456</v>
+        <v>4450450</v>
       </c>
       <c r="AN81" s="13">
-        <v>4578363</v>
+        <v>4783579</v>
       </c>
       <c r="AO81" s="13">
-        <v>4450450</v>
+        <v>4710786</v>
       </c>
       <c r="AP81" s="13">
-        <v>4783579</v>
+        <v>4539422</v>
       </c>
       <c r="AQ81" s="13">
-        <v>4710786</v>
+        <v>5055916</v>
       </c>
       <c r="AR81" s="13">
-        <v>4539422</v>
+        <v>5013949</v>
       </c>
       <c r="AS81" s="13">
-        <v>5055916</v>
+        <v>4937644</v>
       </c>
       <c r="AT81" s="13">
-        <v>5013949</v>
+        <v>6477447</v>
       </c>
       <c r="AU81" s="13">
-        <v>4937644</v>
+        <v>8207939</v>
       </c>
       <c r="AV81" s="13">
-        <v>6477447</v>
+        <v>7647472</v>
       </c>
       <c r="AW81" s="13">
-        <v>8207939</v>
+        <v>6977087</v>
       </c>
       <c r="AX81" s="13">
-        <v>7647472</v>
+        <v>6829781</v>
       </c>
       <c r="AY81" s="13">
-        <v>6977087</v>
+        <v>6591579</v>
       </c>
       <c r="AZ81" s="13">
-        <v>6829781</v>
+        <v>6292681</v>
       </c>
       <c r="BA81" s="13">
-        <v>6591579</v>
+        <v>6167304</v>
       </c>
       <c r="BB81" s="13">
-        <v>6292681</v>
+        <v>6769265</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>60</v>
       </c>
@@ -10375,17 +10375,17 @@
       <c r="AY82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA82" s="11" t="s">
-        <v>58</v>
+      <c r="AZ82" s="11">
+        <v>3203175</v>
+      </c>
+      <c r="BA82" s="11">
+        <v>3200000</v>
       </c>
       <c r="BB82" s="11">
-        <v>3203175</v>
+        <v>3199947</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>89</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>56</v>
       </c>
@@ -10531,77 +10531,77 @@
       <c r="AE84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG84" s="11" t="s">
-        <v>58</v>
+      <c r="AF84" s="11">
+        <v>9941091</v>
+      </c>
+      <c r="AG84" s="11">
+        <v>10673354</v>
       </c>
       <c r="AH84" s="11">
-        <v>9941091</v>
+        <v>10307478</v>
       </c>
       <c r="AI84" s="11">
-        <v>10673354</v>
+        <v>11358420</v>
       </c>
       <c r="AJ84" s="11">
-        <v>10307478</v>
+        <v>11849715</v>
       </c>
       <c r="AK84" s="11">
-        <v>11358420</v>
+        <v>12038332</v>
       </c>
       <c r="AL84" s="11">
-        <v>11849715</v>
+        <v>12394667</v>
       </c>
       <c r="AM84" s="11">
-        <v>12038332</v>
+        <v>13980066</v>
       </c>
       <c r="AN84" s="11">
-        <v>12394667</v>
+        <v>14059916</v>
       </c>
       <c r="AO84" s="11">
-        <v>13980066</v>
+        <v>13271924</v>
       </c>
       <c r="AP84" s="11">
-        <v>14059916</v>
+        <v>12731016</v>
       </c>
       <c r="AQ84" s="11">
-        <v>13271924</v>
+        <v>12436707</v>
       </c>
       <c r="AR84" s="11">
-        <v>12731016</v>
+        <v>11611836</v>
       </c>
       <c r="AS84" s="11">
-        <v>12436707</v>
+        <v>14962535</v>
       </c>
       <c r="AT84" s="11">
-        <v>13747656</v>
+        <v>17305512</v>
       </c>
       <c r="AU84" s="11">
-        <v>14962535</v>
+        <v>19786579</v>
       </c>
       <c r="AV84" s="11">
-        <v>17305512</v>
+        <v>19901818</v>
       </c>
       <c r="AW84" s="11">
-        <v>19786579</v>
+        <v>19646771</v>
       </c>
       <c r="AX84" s="11">
-        <v>19901818</v>
+        <v>19308382</v>
       </c>
       <c r="AY84" s="11">
-        <v>19646771</v>
+        <v>19756911</v>
       </c>
       <c r="AZ84" s="11">
-        <v>19308382</v>
+        <v>20259789</v>
       </c>
       <c r="BA84" s="11">
-        <v>19756911</v>
+        <v>20420324</v>
       </c>
       <c r="BB84" s="11">
-        <v>20259789</v>
+        <v>20424157</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>63</v>
       </c>
@@ -10690,18 +10690,18 @@
       <c r="AE85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH85" s="13">
+      <c r="AF85" s="13">
         <v>9293015</v>
       </c>
-      <c r="AI85" s="13">
+      <c r="AG85" s="13">
         <v>9145966</v>
       </c>
+      <c r="AH85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ85" s="13" t="s">
         <v>58</v>
       </c>
@@ -10714,14 +10714,14 @@
       <c r="AM85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN85" s="13" t="s">
-        <v>58</v>
+      <c r="AN85" s="13">
+        <v>12621672</v>
       </c>
       <c r="AO85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP85" s="13">
-        <v>12621672</v>
+      <c r="AP85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ85" s="13" t="s">
         <v>58</v>
@@ -10760,7 +10760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>64</v>
       </c>
@@ -10837,14 +10837,14 @@
       <c r="AA86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="11" t="s">
-        <v>58</v>
+      <c r="AB86" s="11">
+        <v>9353791</v>
       </c>
       <c r="AC86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="11">
-        <v>9353791</v>
+      <c r="AD86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE86" s="11" t="s">
         <v>58</v>
@@ -10879,15 +10879,15 @@
       <c r="AO86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="11">
+      <c r="AP86" s="11">
         <v>11061348</v>
       </c>
+      <c r="AQ86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS86" s="11" t="s">
         <v>58</v>
       </c>
@@ -10912,14 +10912,14 @@
       <c r="AZ86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA86" s="11" t="s">
-        <v>58</v>
+      <c r="BA86" s="11">
+        <v>16120988</v>
       </c>
       <c r="BB86" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>65</v>
       </c>
@@ -10981,39 +10981,39 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>7893384</v>
+      </c>
+      <c r="X87" s="13">
+        <v>9107957</v>
       </c>
       <c r="Y87" s="13">
-        <v>7893384</v>
+        <v>9444525</v>
       </c>
       <c r="Z87" s="13">
-        <v>9107957</v>
+        <v>10889351</v>
       </c>
       <c r="AA87" s="13">
-        <v>9444525</v>
+        <v>11407293</v>
       </c>
       <c r="AB87" s="13">
-        <v>10889351</v>
+        <v>11452422</v>
       </c>
       <c r="AC87" s="13">
-        <v>11407293</v>
+        <v>10758008</v>
       </c>
       <c r="AD87" s="13">
-        <v>11452422</v>
+        <v>10287172</v>
       </c>
       <c r="AE87" s="13">
-        <v>10758008</v>
-      </c>
-      <c r="AF87" s="13">
-        <v>10287172</v>
-      </c>
-      <c r="AG87" s="13">
         <v>10188773</v>
       </c>
+      <c r="AF87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH87" s="13" t="s">
         <v>58</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>60</v>
       </c>
@@ -11140,39 +11140,39 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y88" s="11">
+      <c r="W88" s="11">
         <v>2996309</v>
       </c>
-      <c r="Z88" s="11">
+      <c r="X88" s="11">
         <v>3566860</v>
       </c>
-      <c r="AA88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA88" s="11">
+        <v>4249388</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>4255247</v>
       </c>
       <c r="AC88" s="11">
-        <v>4249388</v>
+        <v>4390566</v>
       </c>
       <c r="AD88" s="11">
-        <v>4255247</v>
+        <v>4233075</v>
       </c>
       <c r="AE88" s="11">
-        <v>4390566</v>
-      </c>
-      <c r="AF88" s="11">
-        <v>4233075</v>
-      </c>
-      <c r="AG88" s="11">
         <v>4375458</v>
       </c>
+      <c r="AF88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH88" s="11" t="s">
         <v>58</v>
       </c>
@@ -11200,11 +11200,11 @@
       <c r="AP88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="11">
-        <v>27</v>
-      </c>
-      <c r="AR88" s="11">
-        <v>0</v>
+      <c r="AQ88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS88" s="11" t="s">
         <v>58</v>
@@ -11218,26 +11218,26 @@
       <c r="AV88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX88" s="11" t="s">
-        <v>58</v>
+      <c r="AW88" s="11">
+        <v>8294526</v>
+      </c>
+      <c r="AX88" s="11">
+        <v>8294940</v>
       </c>
       <c r="AY88" s="11">
-        <v>8294526</v>
+        <v>8328632</v>
       </c>
       <c r="AZ88" s="11">
-        <v>8294940</v>
+        <v>8482946</v>
       </c>
       <c r="BA88" s="11">
-        <v>8328632</v>
+        <v>8723729</v>
       </c>
       <c r="BB88" s="11">
-        <v>8482946</v>
+        <v>8798470</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>66</v>
       </c>
@@ -11326,17 +11326,17 @@
       <c r="AE89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH89" s="13">
+      <c r="AF89" s="13">
         <v>4383160</v>
       </c>
-      <c r="AI89" s="13">
+      <c r="AG89" s="13">
         <v>4425223</v>
+      </c>
+      <c r="AH89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ89" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/save/product/monthly_seprated.xlsx
+++ b/database/industries/siman/save/product/monthly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD884F2F-87FA-4ED1-A47C-AC0251774107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -295,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +487,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -500,7 +499,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -547,23 +546,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -599,23 +581,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -767,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/product/monthly_seprated.xlsx
+++ b/database/industries/siman/save/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3302,107 +3302,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>19140</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>19140</v>
+        <v>21491</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>21491</v>
+        <v>24349</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>24349</v>
+        <v>21132</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>21132</v>
+        <v>25077</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>25077</v>
+        <v>22587</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>22587</v>
+        <v>17553</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>17553</v>
+        <v>21317</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>21317</v>
+        <v>19837</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>19837</v>
+        <v>15834</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>15834</v>
+        <v>32837</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>32837</v>
+        <v>26704</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>26704</v>
+        <v>16395</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>16395</v>
+        <v>8405</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>8405</v>
+        <v>24351</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>24351</v>
+        <v>23734</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>23734</v>
+        <v>18060</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>18060</v>
+        <v>20116</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>20116</v>
+        <v>20556</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>20556</v>
+        <v>19059</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>19059</v>
+        <v>21797</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>21797</v>
+        <v>21237</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>21237</v>
+        <v>17988</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>17988</v>
+        <v>21940</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>21940</v>
+        <v>13864</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>13864</v>
+        <v>20129</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>20129</v>
+        <v>31021</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>31021</v>
+        <v>21942</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>21942</v>
+        <v>23379</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>23379</v>
+        <v>23204</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>23204</v>
+        <v>22149</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>22149</v>
+        <v>22047</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>22047</v>
+        <v>23407</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>23407</v>
+        <v>20062</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,107 +3461,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>164554</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>164554</v>
+        <v>171058</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>171058</v>
+        <v>153965</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>153965</v>
+        <v>153154</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>153154</v>
+        <v>209383</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>209383</v>
+        <v>140423</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>140423</v>
+        <v>114098</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>114098</v>
+        <v>132416</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>132416</v>
+        <v>130950</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>130950</v>
+        <v>90395</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>90395</v>
+        <v>139873</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>139873</v>
+        <v>147886</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>147886</v>
+        <v>107423</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>107423</v>
+        <v>106479</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>106479</v>
+        <v>140821</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>140821</v>
+        <v>173714</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>173714</v>
+        <v>158509</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>158509</v>
+        <v>172269</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>172269</v>
+        <v>140373</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>140373</v>
+        <v>151743</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>151743</v>
+        <v>172665</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>172665</v>
+        <v>122380</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>122380</v>
+        <v>155063</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>155063</v>
+        <v>161625</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>161625</v>
+        <v>134480</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>134480</v>
+        <v>115271</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>115271</v>
+        <v>181458</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>181458</v>
+        <v>163674</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>163674</v>
+        <v>170203</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>170203</v>
+        <v>196591</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>196591</v>
+        <v>212753</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>212753</v>
+        <v>175818</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>175818</v>
+        <v>184859</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>184859</v>
+        <v>128984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,20 +3707,20 @@
       <c r="AW13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX13" s="13" t="s">
-        <v>58</v>
+      <c r="AX13" s="13" t="n">
+        <v>315</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>315</v>
+        <v>31020</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>31020</v>
+        <v>22616</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>22616</v>
-      </c>
-      <c r="BB13" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,106 +3778,106 @@
         <v>0</v>
       </c>
       <c r="U14" s="18" t="n">
-        <v>0</v>
+        <v>183694</v>
       </c>
       <c r="V14" s="18" t="n">
-        <v>183694</v>
+        <v>192549</v>
       </c>
       <c r="W14" s="18" t="n">
-        <v>192549</v>
+        <v>178314</v>
       </c>
       <c r="X14" s="18" t="n">
-        <v>178314</v>
+        <v>174286</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>174286</v>
+        <v>234460</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>234460</v>
+        <v>163010</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>163010</v>
+        <v>131651</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>131651</v>
+        <v>153733</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>153733</v>
+        <v>150787</v>
       </c>
       <c r="AD14" s="18" t="n">
-        <v>150787</v>
+        <v>106229</v>
       </c>
       <c r="AE14" s="18" t="n">
-        <v>106229</v>
+        <v>172710</v>
       </c>
       <c r="AF14" s="18" t="n">
-        <v>172710</v>
+        <v>174590</v>
       </c>
       <c r="AG14" s="18" t="n">
-        <v>174590</v>
+        <v>123818</v>
       </c>
       <c r="AH14" s="18" t="n">
-        <v>123818</v>
+        <v>114884</v>
       </c>
       <c r="AI14" s="18" t="n">
-        <v>114884</v>
+        <v>165172</v>
       </c>
       <c r="AJ14" s="18" t="n">
-        <v>165172</v>
+        <v>197448</v>
       </c>
       <c r="AK14" s="18" t="n">
-        <v>197448</v>
+        <v>176569</v>
       </c>
       <c r="AL14" s="18" t="n">
-        <v>176569</v>
+        <v>192385</v>
       </c>
       <c r="AM14" s="18" t="n">
-        <v>192385</v>
+        <v>160929</v>
       </c>
       <c r="AN14" s="18" t="n">
-        <v>160929</v>
+        <v>170802</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>170802</v>
+        <v>194462</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>194462</v>
+        <v>143617</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>143617</v>
+        <v>173051</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>173051</v>
+        <v>183565</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>183565</v>
+        <v>148344</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>148344</v>
+        <v>135400</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>135400</v>
+        <v>212479</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>212479</v>
+        <v>185616</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>185616</v>
+        <v>193582</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>193582</v>
+        <v>220110</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>220110</v>
+        <v>265922</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>265922</v>
+        <v>220481</v>
       </c>
       <c r="BA14" s="18" t="n">
-        <v>220481</v>
+        <v>208266</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>208266</v>
+        <v>149046</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,80 +4020,80 @@
       <c r="AC16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" s="13" t="s">
-        <v>58</v>
+      <c r="AD16" s="13" t="n">
+        <v>6179</v>
       </c>
       <c r="AE16" s="13" t="n">
-        <v>6179</v>
+        <v>3190</v>
       </c>
       <c r="AF16" s="13" t="n">
-        <v>3190</v>
+        <v>5737</v>
       </c>
       <c r="AG16" s="13" t="n">
-        <v>5737</v>
+        <v>4470</v>
       </c>
       <c r="AH16" s="13" t="n">
-        <v>4470</v>
+        <v>6135</v>
       </c>
       <c r="AI16" s="13" t="n">
-        <v>6135</v>
+        <v>2489</v>
       </c>
       <c r="AJ16" s="13" t="n">
-        <v>2489</v>
+        <v>3403</v>
       </c>
       <c r="AK16" s="13" t="n">
-        <v>3403</v>
+        <v>6923</v>
       </c>
       <c r="AL16" s="13" t="n">
-        <v>6923</v>
+        <v>8274</v>
       </c>
       <c r="AM16" s="13" t="n">
-        <v>8274</v>
+        <v>4185</v>
       </c>
       <c r="AN16" s="13" t="n">
-        <v>4185</v>
+        <v>5149</v>
       </c>
       <c r="AO16" s="13" t="n">
-        <v>5149</v>
+        <v>3389</v>
       </c>
       <c r="AP16" s="13" t="n">
-        <v>3389</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="13" t="n">
-        <v>0</v>
+        <v>5712</v>
       </c>
       <c r="AR16" s="13" t="n">
-        <v>5712</v>
+        <v>8363</v>
       </c>
       <c r="AS16" s="13" t="n">
-        <v>8363</v>
+        <v>10199</v>
       </c>
       <c r="AT16" s="13" t="n">
-        <v>10199</v>
+        <v>6987</v>
       </c>
       <c r="AU16" s="13" t="n">
-        <v>6987</v>
+        <v>5311</v>
       </c>
       <c r="AV16" s="13" t="n">
-        <v>5311</v>
+        <v>5357</v>
       </c>
       <c r="AW16" s="13" t="n">
-        <v>5357</v>
+        <v>6294</v>
       </c>
       <c r="AX16" s="13" t="n">
-        <v>6294</v>
+        <v>3499</v>
       </c>
       <c r="AY16" s="13" t="n">
-        <v>3499</v>
+        <v>4261</v>
       </c>
       <c r="AZ16" s="13" t="n">
-        <v>4261</v>
+        <v>4706</v>
       </c>
       <c r="BA16" s="13" t="n">
-        <v>4706</v>
+        <v>5188</v>
       </c>
       <c r="BB16" s="13" t="n">
-        <v>5188</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,38 +4179,38 @@
       <c r="AC17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="16" t="s">
-        <v>58</v>
+      <c r="AD17" s="16" t="n">
+        <v>587</v>
       </c>
       <c r="AE17" s="16" t="n">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="AI17" s="16" t="n">
-        <v>6256</v>
+        <v>27260</v>
       </c>
       <c r="AJ17" s="16" t="n">
-        <v>27260</v>
+        <v>186337</v>
       </c>
       <c r="AK17" s="16" t="n">
-        <v>186337</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="16" t="n">
-        <v>0</v>
+        <v>27547</v>
       </c>
       <c r="AM17" s="16" t="n">
-        <v>27547</v>
-      </c>
-      <c r="AN17" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO17" s="16" t="s">
         <v>58</v>
@@ -4311,8 +4311,8 @@
       <c r="T18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>58</v>
+      <c r="U18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="13" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="Z18" s="13" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AA18" s="13" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="13" t="n">
         <v>0</v>
@@ -4338,8 +4338,8 @@
       <c r="AC18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="13" t="n">
-        <v>0</v>
+      <c r="AD18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>58</v>
@@ -4368,50 +4368,50 @@
       <c r="AM18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN18" s="13" t="s">
-        <v>58</v>
+      <c r="AN18" s="13" t="n">
+        <v>14611</v>
       </c>
       <c r="AO18" s="13" t="n">
-        <v>14611</v>
+        <v>26662</v>
       </c>
       <c r="AP18" s="13" t="n">
-        <v>26662</v>
+        <v>27314</v>
       </c>
       <c r="AQ18" s="13" t="n">
-        <v>27314</v>
+        <v>25799</v>
       </c>
       <c r="AR18" s="13" t="n">
-        <v>25799</v>
+        <v>25645</v>
       </c>
       <c r="AS18" s="13" t="n">
-        <v>25645</v>
+        <v>25273</v>
       </c>
       <c r="AT18" s="13" t="n">
-        <v>25273</v>
+        <v>25919</v>
       </c>
       <c r="AU18" s="13" t="n">
-        <v>25919</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13" t="n">
-        <v>0</v>
+        <v>24644</v>
       </c>
       <c r="AW18" s="13" t="n">
-        <v>24644</v>
+        <v>24490</v>
       </c>
       <c r="AX18" s="13" t="n">
-        <v>24490</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="13" t="n">
-        <v>0</v>
+        <v>26426</v>
       </c>
       <c r="AZ18" s="13" t="n">
-        <v>26426</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB18" s="13" t="n">
-        <v>0</v>
+      <c r="BB18" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,35 +4470,35 @@
       <c r="T19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="16" t="s">
-        <v>58</v>
+      <c r="U19" s="16" t="n">
+        <v>5759</v>
       </c>
       <c r="V19" s="16" t="n">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="W19" s="16" t="n">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="X19" s="16" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y19" s="16" t="n">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="Z19" s="16" t="n">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AA19" s="16" t="n">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AB19" s="16" t="n">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AC19" s="16" t="n">
-        <v>5488</v>
-      </c>
-      <c r="AD19" s="16" t="n">
         <v>7856</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE19" s="16" t="s">
         <v>58</v>
@@ -4629,36 +4629,36 @@
       <c r="T20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>58</v>
+      <c r="U20" s="13" t="n">
+        <v>38739</v>
       </c>
       <c r="V20" s="13" t="n">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="W20" s="13" t="n">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="X20" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="13" t="n">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="Z20" s="13" t="n">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AA20" s="13" t="n">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AB20" s="13" t="n">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AC20" s="13" t="n">
-        <v>62289</v>
-      </c>
-      <c r="AD20" s="13" t="n">
         <v>20479</v>
       </c>
+      <c r="AD20" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE20" s="13" t="s">
         <v>58</v>
       </c>
@@ -4686,50 +4686,50 @@
       <c r="AM20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>58</v>
+      <c r="AN20" s="13" t="n">
+        <v>110564</v>
       </c>
       <c r="AO20" s="13" t="n">
-        <v>110564</v>
+        <v>169974</v>
       </c>
       <c r="AP20" s="13" t="n">
-        <v>169974</v>
+        <v>192555</v>
       </c>
       <c r="AQ20" s="13" t="n">
-        <v>192555</v>
+        <v>169077</v>
       </c>
       <c r="AR20" s="13" t="n">
-        <v>169077</v>
+        <v>140508</v>
       </c>
       <c r="AS20" s="13" t="n">
-        <v>140508</v>
+        <v>180806</v>
       </c>
       <c r="AT20" s="13" t="n">
-        <v>180806</v>
+        <v>219813</v>
       </c>
       <c r="AU20" s="13" t="n">
-        <v>219813</v>
+        <v>204773</v>
       </c>
       <c r="AV20" s="13" t="n">
-        <v>204773</v>
+        <v>136083</v>
       </c>
       <c r="AW20" s="13" t="n">
-        <v>136083</v>
+        <v>198340</v>
       </c>
       <c r="AX20" s="13" t="n">
-        <v>198340</v>
+        <v>202344</v>
       </c>
       <c r="AY20" s="13" t="n">
-        <v>202344</v>
+        <v>171445</v>
       </c>
       <c r="AZ20" s="13" t="n">
-        <v>171445</v>
+        <v>50067</v>
       </c>
       <c r="BA20" s="13" t="n">
-        <v>50067</v>
+        <v>30062</v>
       </c>
       <c r="BB20" s="13" t="n">
-        <v>30062</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,29 +4815,29 @@
       <c r="AC21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="16" t="s">
-        <v>58</v>
+      <c r="AD21" s="16" t="n">
+        <v>40166</v>
       </c>
       <c r="AE21" s="16" t="n">
-        <v>40166</v>
+        <v>157376</v>
       </c>
       <c r="AF21" s="16" t="n">
-        <v>157376</v>
+        <v>157438</v>
       </c>
       <c r="AG21" s="16" t="n">
-        <v>157438</v>
+        <v>80965</v>
       </c>
       <c r="AH21" s="16" t="n">
-        <v>80965</v>
+        <v>54772</v>
       </c>
       <c r="AI21" s="16" t="n">
-        <v>54772</v>
+        <v>131461</v>
       </c>
       <c r="AJ21" s="16" t="n">
-        <v>131461</v>
+        <v>24750</v>
       </c>
       <c r="AK21" s="16" t="n">
-        <v>24750</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="16" t="n">
         <v>0</v>
@@ -4845,8 +4845,8 @@
       <c r="AM21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="16" t="n">
-        <v>0</v>
+      <c r="AN21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO21" s="16" t="s">
         <v>58</v>
@@ -4946,106 +4946,106 @@
         <v>0</v>
       </c>
       <c r="U22" s="20" t="n">
-        <v>0</v>
+        <v>44498</v>
       </c>
       <c r="V22" s="20" t="n">
-        <v>44498</v>
+        <v>22232</v>
       </c>
       <c r="W22" s="20" t="n">
-        <v>22232</v>
+        <v>4146</v>
       </c>
       <c r="X22" s="20" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y22" s="20" t="n">
-        <v>5775</v>
+        <v>15809</v>
       </c>
       <c r="Z22" s="20" t="n">
-        <v>15809</v>
+        <v>42471</v>
       </c>
       <c r="AA22" s="20" t="n">
-        <v>42471</v>
+        <v>73097</v>
       </c>
       <c r="AB22" s="20" t="n">
-        <v>73097</v>
+        <v>67777</v>
       </c>
       <c r="AC22" s="20" t="n">
-        <v>67777</v>
+        <v>28335</v>
       </c>
       <c r="AD22" s="20" t="n">
-        <v>28335</v>
+        <v>46932</v>
       </c>
       <c r="AE22" s="20" t="n">
-        <v>46932</v>
+        <v>164978</v>
       </c>
       <c r="AF22" s="20" t="n">
-        <v>164978</v>
+        <v>163175</v>
       </c>
       <c r="AG22" s="20" t="n">
-        <v>163175</v>
+        <v>85435</v>
       </c>
       <c r="AH22" s="20" t="n">
-        <v>85435</v>
+        <v>67163</v>
       </c>
       <c r="AI22" s="20" t="n">
-        <v>67163</v>
+        <v>161210</v>
       </c>
       <c r="AJ22" s="20" t="n">
-        <v>161210</v>
+        <v>214490</v>
       </c>
       <c r="AK22" s="20" t="n">
-        <v>214490</v>
+        <v>6923</v>
       </c>
       <c r="AL22" s="20" t="n">
-        <v>6923</v>
+        <v>35821</v>
       </c>
       <c r="AM22" s="20" t="n">
-        <v>35821</v>
+        <v>4185</v>
       </c>
       <c r="AN22" s="20" t="n">
-        <v>4185</v>
+        <v>130324</v>
       </c>
       <c r="AO22" s="20" t="n">
-        <v>130324</v>
+        <v>200025</v>
       </c>
       <c r="AP22" s="20" t="n">
-        <v>200025</v>
+        <v>219869</v>
       </c>
       <c r="AQ22" s="20" t="n">
-        <v>219869</v>
+        <v>200588</v>
       </c>
       <c r="AR22" s="20" t="n">
-        <v>200588</v>
+        <v>174516</v>
       </c>
       <c r="AS22" s="20" t="n">
-        <v>174516</v>
+        <v>216278</v>
       </c>
       <c r="AT22" s="20" t="n">
-        <v>216278</v>
+        <v>252719</v>
       </c>
       <c r="AU22" s="20" t="n">
-        <v>252719</v>
+        <v>210084</v>
       </c>
       <c r="AV22" s="20" t="n">
-        <v>210084</v>
+        <v>166084</v>
       </c>
       <c r="AW22" s="20" t="n">
-        <v>166084</v>
+        <v>229124</v>
       </c>
       <c r="AX22" s="20" t="n">
-        <v>229124</v>
+        <v>205843</v>
       </c>
       <c r="AY22" s="20" t="n">
-        <v>205843</v>
+        <v>202132</v>
       </c>
       <c r="AZ22" s="20" t="n">
-        <v>202132</v>
+        <v>54773</v>
       </c>
       <c r="BA22" s="20" t="n">
-        <v>54773</v>
+        <v>35250</v>
       </c>
       <c r="BB22" s="20" t="n">
-        <v>35250</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,8 +5159,8 @@
       <c r="T24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="20" t="s">
-        <v>58</v>
+      <c r="U24" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="20" t="n">
         <v>0</v>
@@ -5317,106 +5317,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>228192</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>228192</v>
+        <v>214781</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>214781</v>
+        <v>182460</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>182460</v>
+        <v>180061</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>180061</v>
+        <v>250269</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>250269</v>
+        <v>205481</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>205481</v>
+        <v>204748</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>204748</v>
+        <v>221510</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>221510</v>
+        <v>179122</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>179122</v>
+        <v>153161</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>153161</v>
+        <v>337688</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>337688</v>
+        <v>337765</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>337765</v>
+        <v>209253</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>209253</v>
+        <v>182047</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>182047</v>
+        <v>326382</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>326382</v>
+        <v>411938</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>411938</v>
+        <v>183492</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>183492</v>
+        <v>228206</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>228206</v>
+        <v>165114</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>165114</v>
+        <v>301126</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>301126</v>
+        <v>394487</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>394487</v>
+        <v>363486</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>363486</v>
+        <v>373639</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>373639</v>
+        <v>358081</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>358081</v>
+        <v>364622</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>364622</v>
+        <v>388119</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>388119</v>
+        <v>422563</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>422563</v>
+        <v>351700</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>351700</v>
+        <v>422706</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>422706</v>
+        <v>425953</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>425953</v>
+        <v>468054</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>468054</v>
+        <v>275254</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>275254</v>
+        <v>243516</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>243516</v>
+        <v>172346</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,107 +5909,107 @@
       <c r="T32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>58</v>
+      <c r="U32" s="13" t="n">
+        <v>20143</v>
       </c>
       <c r="V32" s="13" t="n">
-        <v>20143</v>
+        <v>22386</v>
       </c>
       <c r="W32" s="13" t="n">
-        <v>22386</v>
+        <v>24346</v>
       </c>
       <c r="X32" s="13" t="n">
-        <v>24346</v>
+        <v>20598</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>20598</v>
+        <v>23029</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>23029</v>
+        <v>25439</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>25439</v>
+        <v>16218</v>
       </c>
       <c r="AB32" s="13" t="n">
-        <v>16218</v>
+        <v>21107</v>
       </c>
       <c r="AC32" s="13" t="n">
-        <v>21107</v>
+        <v>19146</v>
       </c>
       <c r="AD32" s="13" t="n">
-        <v>19146</v>
+        <v>16883</v>
       </c>
       <c r="AE32" s="13" t="n">
-        <v>16883</v>
+        <v>26911</v>
       </c>
       <c r="AF32" s="13" t="n">
-        <v>26911</v>
+        <v>22555</v>
       </c>
       <c r="AG32" s="13" t="n">
-        <v>22555</v>
+        <v>13789</v>
       </c>
       <c r="AH32" s="13" t="n">
-        <v>13789</v>
+        <v>7855</v>
       </c>
       <c r="AI32" s="13" t="n">
-        <v>7855</v>
+        <v>15226</v>
       </c>
       <c r="AJ32" s="13" t="n">
-        <v>15226</v>
+        <v>18880</v>
       </c>
       <c r="AK32" s="13" t="n">
-        <v>18880</v>
+        <v>20878</v>
       </c>
       <c r="AL32" s="13" t="n">
-        <v>20878</v>
+        <v>20214</v>
       </c>
       <c r="AM32" s="13" t="n">
-        <v>20214</v>
+        <v>20076</v>
       </c>
       <c r="AN32" s="13" t="n">
-        <v>20076</v>
+        <v>17766</v>
       </c>
       <c r="AO32" s="13" t="n">
-        <v>17766</v>
+        <v>21824</v>
       </c>
       <c r="AP32" s="13" t="n">
-        <v>21824</v>
+        <v>20182</v>
       </c>
       <c r="AQ32" s="13" t="n">
-        <v>20182</v>
+        <v>18371</v>
       </c>
       <c r="AR32" s="13" t="n">
-        <v>18371</v>
+        <v>23030</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>23030</v>
+        <v>17877</v>
       </c>
       <c r="AT32" s="13" t="n">
-        <v>17877</v>
+        <v>22524</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>22524</v>
+        <v>25657</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>25657</v>
+        <v>27733</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>27733</v>
+        <v>28732</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>28732</v>
+        <v>21757</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>21757</v>
+        <v>22558</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>22558</v>
+        <v>22047</v>
       </c>
       <c r="BA32" s="13" t="n">
-        <v>22047</v>
+        <v>24395</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>24395</v>
+        <v>21810</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,107 +6068,107 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>171953</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>171953</v>
+        <v>158348</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>158348</v>
+        <v>150876</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>150876</v>
+        <v>156400</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>156400</v>
+        <v>209304</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>209304</v>
+        <v>141379</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>141379</v>
+        <v>129647</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>129647</v>
+        <v>117928</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>117928</v>
+        <v>129919</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>129919</v>
+        <v>92070</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>92070</v>
+        <v>137385</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>137385</v>
+        <v>159155</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>159155</v>
+        <v>124244</v>
       </c>
       <c r="AH33" s="16" t="n">
-        <v>124244</v>
+        <v>90034</v>
       </c>
       <c r="AI33" s="16" t="n">
-        <v>90034</v>
+        <v>147875</v>
       </c>
       <c r="AJ33" s="16" t="n">
-        <v>147875</v>
+        <v>146275</v>
       </c>
       <c r="AK33" s="16" t="n">
-        <v>146275</v>
+        <v>161714</v>
       </c>
       <c r="AL33" s="16" t="n">
-        <v>161714</v>
+        <v>167202</v>
       </c>
       <c r="AM33" s="16" t="n">
-        <v>167202</v>
+        <v>147237</v>
       </c>
       <c r="AN33" s="16" t="n">
-        <v>147237</v>
+        <v>146937</v>
       </c>
       <c r="AO33" s="16" t="n">
-        <v>146937</v>
+        <v>170847</v>
       </c>
       <c r="AP33" s="16" t="n">
-        <v>170847</v>
+        <v>124668</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>124668</v>
+        <v>156883</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>156883</v>
+        <v>160445</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>160445</v>
+        <v>130644</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>130644</v>
+        <v>133425</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>133425</v>
+        <v>180290</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>180290</v>
+        <v>152750</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>152750</v>
+        <v>174888</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>174888</v>
+        <v>205623</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>205623</v>
+        <v>189069</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>189069</v>
+        <v>180909</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>180909</v>
+        <v>185332</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>185332</v>
+        <v>140001</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,20 +6314,20 @@
       <c r="AW34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX34" s="13" t="s">
-        <v>58</v>
+      <c r="AX34" s="13" t="n">
+        <v>315</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>315</v>
+        <v>31020</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>31020</v>
+        <v>22616</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>22616</v>
-      </c>
-      <c r="BB34" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,106 +6385,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>0</v>
+        <v>192096</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>192096</v>
+        <v>180734</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>180734</v>
+        <v>175222</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>175222</v>
+        <v>176998</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>176998</v>
+        <v>232333</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>232333</v>
+        <v>166818</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>166818</v>
+        <v>145865</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>145865</v>
+        <v>139035</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>139035</v>
+        <v>149065</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>149065</v>
+        <v>108953</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>108953</v>
+        <v>164296</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>164296</v>
+        <v>181710</v>
       </c>
       <c r="AG35" s="18" t="n">
-        <v>181710</v>
+        <v>138033</v>
       </c>
       <c r="AH35" s="18" t="n">
-        <v>138033</v>
+        <v>97889</v>
       </c>
       <c r="AI35" s="18" t="n">
-        <v>97889</v>
+        <v>163100</v>
       </c>
       <c r="AJ35" s="18" t="n">
-        <v>163100</v>
+        <v>165155</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>165155</v>
+        <v>182592</v>
       </c>
       <c r="AL35" s="18" t="n">
-        <v>182592</v>
+        <v>187416</v>
       </c>
       <c r="AM35" s="18" t="n">
-        <v>187416</v>
+        <v>167313</v>
       </c>
       <c r="AN35" s="18" t="n">
-        <v>167313</v>
+        <v>164703</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>164703</v>
+        <v>192671</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>192671</v>
+        <v>144850</v>
       </c>
       <c r="AQ35" s="18" t="n">
-        <v>144850</v>
+        <v>175253</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>175253</v>
+        <v>183475</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>183475</v>
+        <v>148521</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>148521</v>
+        <v>155949</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>155949</v>
+        <v>205947</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>205947</v>
+        <v>180483</v>
       </c>
       <c r="AW35" s="18" t="n">
-        <v>180483</v>
+        <v>203620</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>203620</v>
+        <v>227695</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>227695</v>
+        <v>242647</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>242647</v>
+        <v>225572</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>225572</v>
+        <v>209727</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>209727</v>
+        <v>161811</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,80 +6627,80 @@
       <c r="AC37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD37" s="13" t="s">
-        <v>58</v>
+      <c r="AD37" s="13" t="n">
+        <v>6179</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>6179</v>
+        <v>3190</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>3190</v>
+        <v>5737</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>5737</v>
+        <v>4470</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>4470</v>
+        <v>6135</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>6135</v>
+        <v>2489</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>2489</v>
+        <v>3403</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>3403</v>
+        <v>6923</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>6923</v>
+        <v>8274</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>8274</v>
+        <v>4185</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>4185</v>
+        <v>5149</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>5149</v>
+        <v>3389</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>3389</v>
+        <v>6263</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>6263</v>
+        <v>5712</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>5712</v>
+        <v>8363</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>8363</v>
+        <v>4910</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>4910</v>
+        <v>6987</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>6987</v>
+        <v>5311</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>5311</v>
+        <v>5357</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>5357</v>
+        <v>6294</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>6294</v>
+        <v>3499</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>3499</v>
+        <v>4261</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>4261</v>
+        <v>3883</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>3883</v>
+        <v>5188</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>5188</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,14 +6786,14 @@
       <c r="AC38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>58</v>
+      <c r="AD38" s="16" t="n">
+        <v>587</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="16" t="n">
         <v>0</v>
@@ -6811,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>1118</v>
-      </c>
-      <c r="AN38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO38" s="16" t="s">
         <v>58</v>
@@ -6918,8 +6918,8 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="13" t="n">
         <v>0</v>
@@ -6934,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="13" t="n">
         <v>0</v>
@@ -6945,8 +6945,8 @@
       <c r="AC39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD39" s="13" t="n">
-        <v>0</v>
+      <c r="AD39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE39" s="13" t="s">
         <v>58</v>
@@ -6975,11 +6975,11 @@
       <c r="AM39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="13" t="s">
-        <v>58</v>
+      <c r="AN39" s="13" t="n">
+        <v>4613</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="13" t="n">
         <v>0</v>
@@ -7009,16 +7009,16 @@
         <v>0</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB39" s="13" t="n">
-        <v>0</v>
+      <c r="BB39" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,35 +7077,35 @@
       <c r="T40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>58</v>
+      <c r="U40" s="16" t="n">
+        <v>5759</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>5488</v>
-      </c>
-      <c r="AD40" s="16" t="n">
         <v>7856</v>
+      </c>
+      <c r="AD40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE40" s="16" t="s">
         <v>58</v>
@@ -7236,36 +7236,36 @@
       <c r="T41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>58</v>
+      <c r="U41" s="13" t="n">
+        <v>38739</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="X41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Y41" s="13" t="n">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>62289</v>
-      </c>
-      <c r="AD41" s="13" t="n">
         <v>20479</v>
       </c>
+      <c r="AD41" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE41" s="13" t="s">
         <v>58</v>
       </c>
@@ -7293,8 +7293,8 @@
       <c r="AM41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN41" s="13" t="s">
-        <v>58</v>
+      <c r="AN41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO41" s="13" t="n">
         <v>0</v>
@@ -7315,28 +7315,28 @@
         <v>0</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>2448</v>
+        <v>28955</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>28955</v>
+        <v>97568</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>97568</v>
+        <v>56085</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>56085</v>
+        <v>73055</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>73055</v>
+        <v>50067</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>50067</v>
+        <v>30062</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>30062</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,14 +7422,14 @@
       <c r="AC42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="16" t="s">
-        <v>58</v>
+      <c r="AD42" s="16" t="n">
+        <v>40166</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>40166</v>
+        <v>121040</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>121040</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="16" t="n">
         <v>0</v>
@@ -7452,8 +7452,8 @@
       <c r="AM42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AN42" s="16" t="n">
-        <v>0</v>
+      <c r="AN42" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO42" s="16" t="s">
         <v>58</v>
@@ -7553,106 +7553,106 @@
         <v>0</v>
       </c>
       <c r="U43" s="20" t="n">
-        <v>0</v>
+        <v>44498</v>
       </c>
       <c r="V43" s="20" t="n">
-        <v>44498</v>
+        <v>22232</v>
       </c>
       <c r="W43" s="20" t="n">
-        <v>22232</v>
+        <v>4146</v>
       </c>
       <c r="X43" s="20" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y43" s="20" t="n">
-        <v>5775</v>
+        <v>15809</v>
       </c>
       <c r="Z43" s="20" t="n">
-        <v>15809</v>
+        <v>42471</v>
       </c>
       <c r="AA43" s="20" t="n">
-        <v>42471</v>
+        <v>73097</v>
       </c>
       <c r="AB43" s="20" t="n">
-        <v>73097</v>
+        <v>67777</v>
       </c>
       <c r="AC43" s="20" t="n">
-        <v>67777</v>
+        <v>28335</v>
       </c>
       <c r="AD43" s="20" t="n">
-        <v>28335</v>
+        <v>46932</v>
       </c>
       <c r="AE43" s="20" t="n">
-        <v>46932</v>
+        <v>128642</v>
       </c>
       <c r="AF43" s="20" t="n">
-        <v>128642</v>
+        <v>5737</v>
       </c>
       <c r="AG43" s="20" t="n">
-        <v>5737</v>
+        <v>4470</v>
       </c>
       <c r="AH43" s="20" t="n">
-        <v>4470</v>
+        <v>6135</v>
       </c>
       <c r="AI43" s="20" t="n">
-        <v>6135</v>
+        <v>2489</v>
       </c>
       <c r="AJ43" s="20" t="n">
-        <v>2489</v>
+        <v>3403</v>
       </c>
       <c r="AK43" s="20" t="n">
-        <v>3403</v>
+        <v>6923</v>
       </c>
       <c r="AL43" s="20" t="n">
-        <v>6923</v>
+        <v>9391</v>
       </c>
       <c r="AM43" s="20" t="n">
-        <v>9391</v>
+        <v>4185</v>
       </c>
       <c r="AN43" s="20" t="n">
-        <v>4185</v>
+        <v>9762</v>
       </c>
       <c r="AO43" s="20" t="n">
-        <v>9762</v>
+        <v>3389</v>
       </c>
       <c r="AP43" s="20" t="n">
-        <v>3389</v>
+        <v>6263</v>
       </c>
       <c r="AQ43" s="20" t="n">
-        <v>6263</v>
+        <v>5712</v>
       </c>
       <c r="AR43" s="20" t="n">
-        <v>5712</v>
+        <v>8363</v>
       </c>
       <c r="AS43" s="20" t="n">
-        <v>8363</v>
+        <v>4910</v>
       </c>
       <c r="AT43" s="20" t="n">
-        <v>4910</v>
+        <v>6987</v>
       </c>
       <c r="AU43" s="20" t="n">
-        <v>6987</v>
+        <v>7759</v>
       </c>
       <c r="AV43" s="20" t="n">
-        <v>7759</v>
+        <v>34312</v>
       </c>
       <c r="AW43" s="20" t="n">
-        <v>34312</v>
+        <v>103862</v>
       </c>
       <c r="AX43" s="20" t="n">
-        <v>103862</v>
+        <v>59584</v>
       </c>
       <c r="AY43" s="20" t="n">
-        <v>59584</v>
+        <v>77721</v>
       </c>
       <c r="AZ43" s="20" t="n">
-        <v>77721</v>
+        <v>53950</v>
       </c>
       <c r="BA43" s="20" t="n">
-        <v>53950</v>
+        <v>35250</v>
       </c>
       <c r="BB43" s="20" t="n">
-        <v>35250</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,8 +7766,8 @@
       <c r="T45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>58</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -7980,8 +7980,8 @@
       <c r="T47" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>58</v>
+      <c r="U47" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="20" t="n">
         <v>0</v>
@@ -8138,106 +8138,106 @@
         <v>0</v>
       </c>
       <c r="U48" s="18" t="n">
-        <v>0</v>
+        <v>236594</v>
       </c>
       <c r="V48" s="18" t="n">
-        <v>236594</v>
+        <v>202966</v>
       </c>
       <c r="W48" s="18" t="n">
-        <v>202966</v>
+        <v>179368</v>
       </c>
       <c r="X48" s="18" t="n">
-        <v>179368</v>
+        <v>182773</v>
       </c>
       <c r="Y48" s="18" t="n">
-        <v>182773</v>
+        <v>248142</v>
       </c>
       <c r="Z48" s="18" t="n">
-        <v>248142</v>
+        <v>209289</v>
       </c>
       <c r="AA48" s="18" t="n">
-        <v>209289</v>
+        <v>218962</v>
       </c>
       <c r="AB48" s="18" t="n">
-        <v>218962</v>
+        <v>206812</v>
       </c>
       <c r="AC48" s="18" t="n">
-        <v>206812</v>
+        <v>177400</v>
       </c>
       <c r="AD48" s="18" t="n">
-        <v>177400</v>
+        <v>155885</v>
       </c>
       <c r="AE48" s="18" t="n">
-        <v>155885</v>
+        <v>292938</v>
       </c>
       <c r="AF48" s="18" t="n">
-        <v>292938</v>
+        <v>187447</v>
       </c>
       <c r="AG48" s="18" t="n">
-        <v>187447</v>
+        <v>142504</v>
       </c>
       <c r="AH48" s="18" t="n">
-        <v>142504</v>
+        <v>104024</v>
       </c>
       <c r="AI48" s="18" t="n">
-        <v>104024</v>
+        <v>165589</v>
       </c>
       <c r="AJ48" s="18" t="n">
-        <v>165589</v>
+        <v>168559</v>
       </c>
       <c r="AK48" s="18" t="n">
-        <v>168559</v>
+        <v>189515</v>
       </c>
       <c r="AL48" s="18" t="n">
-        <v>189515</v>
+        <v>196808</v>
       </c>
       <c r="AM48" s="18" t="n">
-        <v>196808</v>
+        <v>171498</v>
       </c>
       <c r="AN48" s="18" t="n">
-        <v>171498</v>
+        <v>174465</v>
       </c>
       <c r="AO48" s="18" t="n">
-        <v>174465</v>
+        <v>196060</v>
       </c>
       <c r="AP48" s="18" t="n">
-        <v>196060</v>
+        <v>151113</v>
       </c>
       <c r="AQ48" s="18" t="n">
-        <v>151113</v>
+        <v>180965</v>
       </c>
       <c r="AR48" s="18" t="n">
-        <v>180965</v>
+        <v>191838</v>
       </c>
       <c r="AS48" s="18" t="n">
-        <v>191838</v>
+        <v>153431</v>
       </c>
       <c r="AT48" s="18" t="n">
-        <v>153431</v>
+        <v>162936</v>
       </c>
       <c r="AU48" s="18" t="n">
-        <v>162936</v>
+        <v>213706</v>
       </c>
       <c r="AV48" s="18" t="n">
-        <v>213706</v>
+        <v>214795</v>
       </c>
       <c r="AW48" s="18" t="n">
-        <v>214795</v>
+        <v>307482</v>
       </c>
       <c r="AX48" s="18" t="n">
-        <v>307482</v>
+        <v>287279</v>
       </c>
       <c r="AY48" s="18" t="n">
-        <v>287279</v>
+        <v>320368</v>
       </c>
       <c r="AZ48" s="18" t="n">
-        <v>320368</v>
+        <v>279522</v>
       </c>
       <c r="BA48" s="18" t="n">
-        <v>279522</v>
+        <v>244977</v>
       </c>
       <c r="BB48" s="18" t="n">
-        <v>244977</v>
+        <v>185111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,107 +8730,107 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>89345</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>89345</v>
+        <v>104936</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>104936</v>
+        <v>116390</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>116390</v>
+        <v>99437</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>99437</v>
+        <v>117329</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>117329</v>
+        <v>131846</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>131846</v>
+        <v>83934</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>83934</v>
+        <v>109324</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>109324</v>
+        <v>98840</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>98840</v>
+        <v>105760</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>105760</v>
+        <v>185724</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>185724</v>
+        <v>159861</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>159861</v>
+        <v>116022</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>116022</v>
+        <v>76546</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>76546</v>
+        <v>198028</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>198028</v>
+        <v>225186</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>225186</v>
+        <v>210885</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>210885</v>
+        <v>195832</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>195832</v>
+        <v>182453</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>182453</v>
+        <v>164581</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>164581</v>
+        <v>227713</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>227713</v>
+        <v>162880</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>162880</v>
+        <v>211642</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>211642</v>
+        <v>299192</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>299192</v>
+        <v>293138</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>293138</v>
+        <v>342997</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>342997</v>
+        <v>374343</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>374343</v>
+        <v>323984</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>323984</v>
+        <v>352689</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>352689</v>
+        <v>334059</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>334059</v>
+        <v>317756</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>317756</v>
+        <v>324728</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>324728</v>
+        <v>374051</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>374051</v>
+        <v>373329</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,107 +8889,107 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>363783</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>363783</v>
+        <v>376275</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>376275</v>
+        <v>359067</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>359067</v>
+        <v>378334</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>378334</v>
+        <v>534901</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>534901</v>
+        <v>355004</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>355004</v>
+        <v>328996</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>328996</v>
+        <v>295609</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>295609</v>
+        <v>331053</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>331053</v>
+        <v>252271</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>252271</v>
+        <v>490846</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>490846</v>
+        <v>565164</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>565164</v>
+        <v>536861</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>536861</v>
+        <v>539113</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>539113</v>
+        <v>955486</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>955486</v>
+        <v>669700</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>669700</v>
+        <v>719700</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>719700</v>
+        <v>799824</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>799824</v>
+        <v>693602</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>693602</v>
+        <v>667009</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>667009</v>
+        <v>863788</v>
       </c>
       <c r="AP56" s="16" t="n">
-        <v>863788</v>
+        <v>625079</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>625079</v>
+        <v>774630</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>774630</v>
+        <v>1039274</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>1039274</v>
+        <v>1072318</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>1072318</v>
+        <v>1020364</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>1020364</v>
+        <v>1257899</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>1257899</v>
+        <v>1043249</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>1043249</v>
+        <v>1152788</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>1152788</v>
+        <v>1293920</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>1293920</v>
+        <v>1166046</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>1166046</v>
+        <v>1224621</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>1224621</v>
+        <v>1406607</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>1406607</v>
+        <v>1130226</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9135,20 +9135,20 @@
       <c r="AW57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX57" s="13" t="s">
-        <v>58</v>
+      <c r="AX57" s="13" t="n">
+        <v>1009</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>1009</v>
+        <v>99264</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>99264</v>
+        <v>72370</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>72370</v>
-      </c>
-      <c r="BB57" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB57" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9206,106 +9206,106 @@
         <v>0</v>
       </c>
       <c r="U58" s="18" t="n">
-        <v>0</v>
+        <v>453128</v>
       </c>
       <c r="V58" s="18" t="n">
-        <v>453128</v>
+        <v>481211</v>
       </c>
       <c r="W58" s="18" t="n">
-        <v>481211</v>
+        <v>475457</v>
       </c>
       <c r="X58" s="18" t="n">
-        <v>475457</v>
+        <v>477771</v>
       </c>
       <c r="Y58" s="18" t="n">
-        <v>477771</v>
+        <v>652230</v>
       </c>
       <c r="Z58" s="18" t="n">
-        <v>652230</v>
+        <v>486850</v>
       </c>
       <c r="AA58" s="18" t="n">
-        <v>486850</v>
+        <v>412930</v>
       </c>
       <c r="AB58" s="18" t="n">
-        <v>412930</v>
+        <v>404933</v>
       </c>
       <c r="AC58" s="18" t="n">
-        <v>404933</v>
+        <v>429893</v>
       </c>
       <c r="AD58" s="18" t="n">
-        <v>429893</v>
+        <v>358031</v>
       </c>
       <c r="AE58" s="18" t="n">
-        <v>358031</v>
+        <v>676570</v>
       </c>
       <c r="AF58" s="18" t="n">
-        <v>676570</v>
+        <v>725025</v>
       </c>
       <c r="AG58" s="18" t="n">
-        <v>725025</v>
+        <v>652883</v>
       </c>
       <c r="AH58" s="18" t="n">
-        <v>652883</v>
+        <v>615659</v>
       </c>
       <c r="AI58" s="18" t="n">
-        <v>615659</v>
+        <v>1153514</v>
       </c>
       <c r="AJ58" s="18" t="n">
-        <v>1153514</v>
+        <v>894886</v>
       </c>
       <c r="AK58" s="18" t="n">
-        <v>894886</v>
+        <v>930585</v>
       </c>
       <c r="AL58" s="18" t="n">
-        <v>930585</v>
+        <v>995656</v>
       </c>
       <c r="AM58" s="18" t="n">
-        <v>995656</v>
+        <v>876055</v>
       </c>
       <c r="AN58" s="18" t="n">
-        <v>876055</v>
+        <v>831590</v>
       </c>
       <c r="AO58" s="18" t="n">
-        <v>831590</v>
+        <v>1091501</v>
       </c>
       <c r="AP58" s="18" t="n">
-        <v>1091501</v>
+        <v>787959</v>
       </c>
       <c r="AQ58" s="18" t="n">
-        <v>787959</v>
+        <v>986272</v>
       </c>
       <c r="AR58" s="18" t="n">
-        <v>986272</v>
+        <v>1338466</v>
       </c>
       <c r="AS58" s="18" t="n">
-        <v>1338466</v>
+        <v>1365456</v>
       </c>
       <c r="AT58" s="18" t="n">
-        <v>1365456</v>
+        <v>1363361</v>
       </c>
       <c r="AU58" s="18" t="n">
-        <v>1363361</v>
+        <v>1632242</v>
       </c>
       <c r="AV58" s="18" t="n">
-        <v>1632242</v>
+        <v>1367233</v>
       </c>
       <c r="AW58" s="18" t="n">
-        <v>1367233</v>
+        <v>1505477</v>
       </c>
       <c r="AX58" s="18" t="n">
-        <v>1505477</v>
+        <v>1628988</v>
       </c>
       <c r="AY58" s="18" t="n">
-        <v>1628988</v>
+        <v>1583066</v>
       </c>
       <c r="AZ58" s="18" t="n">
-        <v>1583066</v>
+        <v>1621719</v>
       </c>
       <c r="BA58" s="18" t="n">
-        <v>1621719</v>
+        <v>1780658</v>
       </c>
       <c r="BB58" s="18" t="n">
-        <v>1780658</v>
+        <v>1503555</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9448,80 +9448,80 @@
       <c r="AC60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
+      <c r="AD60" s="13" t="n">
+        <v>61426</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>61426</v>
+        <v>34048</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>34048</v>
+        <v>59134</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>59134</v>
+        <v>50776</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>50776</v>
+        <v>72698</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>72698</v>
+        <v>29961</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>29961</v>
+        <v>42185</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>42185</v>
+        <v>96784</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>96784</v>
+        <v>116325</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>116325</v>
+        <v>55543</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>55543</v>
+        <v>65552</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>65552</v>
+        <v>42148</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>42148</v>
+        <v>72724</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>72724</v>
+        <v>85466</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>85466</v>
+        <v>144726</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>144726</v>
+        <v>97143</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>97143</v>
+        <v>139054</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>139054</v>
+        <v>104344</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>104344</v>
+        <v>103435</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>103435</v>
+        <v>124350</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>124350</v>
+        <v>70889</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>70889</v>
+        <v>87011</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>87011</v>
+        <v>79307</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>79307</v>
+        <v>130972</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>130972</v>
+        <v>210291</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,14 +9607,14 @@
       <c r="AC61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD61" s="16" t="s">
-        <v>58</v>
+      <c r="AD61" s="16" t="n">
+        <v>5455</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>5455</v>
+        <v>40352</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>40352</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="16" t="n">
         <v>0</v>
@@ -9632,13 +9632,13 @@
         <v>0</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>0</v>
+        <v>14108</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>14108</v>
-      </c>
-      <c r="AN61" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO61" s="16" t="s">
         <v>58</v>
@@ -9739,8 +9739,8 @@
       <c r="T62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>58</v>
+      <c r="U62" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="13" t="n">
         <v>0</v>
@@ -9755,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="AA62" s="13" t="n">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="13" t="n">
         <v>0</v>
@@ -9766,8 +9766,8 @@
       <c r="AC62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD62" s="13" t="n">
-        <v>0</v>
+      <c r="AD62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE62" s="13" t="s">
         <v>58</v>
@@ -9796,11 +9796,11 @@
       <c r="AM62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN62" s="13" t="s">
-        <v>58</v>
+      <c r="AN62" s="13" t="n">
+        <v>51026</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="13" t="n">
         <v>0</v>
@@ -9830,16 +9830,16 @@
         <v>0</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>0</v>
+        <v>6529</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>6529</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB62" s="13" t="n">
-        <v>0</v>
+      <c r="BB62" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9898,35 +9898,35 @@
       <c r="T63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>58</v>
+      <c r="U63" s="16" t="n">
+        <v>45458</v>
       </c>
       <c r="V63" s="16" t="n">
-        <v>45458</v>
+        <v>45558</v>
       </c>
       <c r="W63" s="16" t="n">
-        <v>45558</v>
+        <v>39157</v>
       </c>
       <c r="X63" s="16" t="n">
-        <v>39157</v>
+        <v>62886</v>
       </c>
       <c r="Y63" s="16" t="n">
-        <v>62886</v>
+        <v>59124</v>
       </c>
       <c r="Z63" s="16" t="n">
-        <v>59124</v>
+        <v>60297</v>
       </c>
       <c r="AA63" s="16" t="n">
-        <v>60297</v>
+        <v>61127</v>
       </c>
       <c r="AB63" s="16" t="n">
-        <v>61127</v>
+        <v>56456</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>56456</v>
-      </c>
-      <c r="AD63" s="16" t="n">
         <v>80043</v>
+      </c>
+      <c r="AD63" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE63" s="16" t="s">
         <v>58</v>
@@ -10057,36 +10057,36 @@
       <c r="T64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="13" t="s">
-        <v>58</v>
+      <c r="U64" s="13" t="n">
+        <v>116074</v>
       </c>
       <c r="V64" s="13" t="n">
-        <v>116074</v>
+        <v>61457</v>
       </c>
       <c r="W64" s="13" t="n">
-        <v>61457</v>
+        <v>0</v>
       </c>
       <c r="X64" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Y64" s="13" t="n">
-        <v>0</v>
+        <v>45154</v>
       </c>
       <c r="Z64" s="13" t="n">
-        <v>45154</v>
+        <v>157142</v>
       </c>
       <c r="AA64" s="13" t="n">
-        <v>157142</v>
+        <v>295990</v>
       </c>
       <c r="AB64" s="13" t="n">
-        <v>295990</v>
+        <v>263674</v>
       </c>
       <c r="AC64" s="13" t="n">
-        <v>263674</v>
-      </c>
-      <c r="AD64" s="13" t="n">
         <v>89605</v>
       </c>
+      <c r="AD64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE64" s="13" t="s">
         <v>58</v>
       </c>
@@ -10114,8 +10114,8 @@
       <c r="AM64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN64" s="13" t="s">
-        <v>58</v>
+      <c r="AN64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO64" s="13" t="n">
         <v>0</v>
@@ -10136,28 +10136,28 @@
         <v>0</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>20305</v>
+        <v>240180</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>240180</v>
+        <v>812608</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>812608</v>
+        <v>475766</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>475766</v>
+        <v>637312</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>637312</v>
+        <v>440513</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>440513</v>
+        <v>323811</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>323811</v>
+        <v>184357</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10243,14 +10243,14 @@
       <c r="AC65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="16" t="s">
-        <v>58</v>
+      <c r="AD65" s="16" t="n">
+        <v>176054</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>176054</v>
+        <v>535629</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>535629</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="16" t="n">
         <v>0</v>
@@ -10273,8 +10273,8 @@
       <c r="AM65" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AN65" s="16" t="n">
-        <v>0</v>
+      <c r="AN65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO65" s="16" t="s">
         <v>58</v>
@@ -10374,106 +10374,106 @@
         <v>0</v>
       </c>
       <c r="U66" s="20" t="n">
-        <v>0</v>
+        <v>161532</v>
       </c>
       <c r="V66" s="20" t="n">
-        <v>161532</v>
+        <v>107015</v>
       </c>
       <c r="W66" s="20" t="n">
-        <v>107015</v>
+        <v>39157</v>
       </c>
       <c r="X66" s="20" t="n">
-        <v>39157</v>
+        <v>62886</v>
       </c>
       <c r="Y66" s="20" t="n">
-        <v>62886</v>
+        <v>104278</v>
       </c>
       <c r="Z66" s="20" t="n">
-        <v>104278</v>
+        <v>220030</v>
       </c>
       <c r="AA66" s="20" t="n">
-        <v>220030</v>
+        <v>357117</v>
       </c>
       <c r="AB66" s="20" t="n">
-        <v>357117</v>
+        <v>320130</v>
       </c>
       <c r="AC66" s="20" t="n">
-        <v>320130</v>
+        <v>169648</v>
       </c>
       <c r="AD66" s="20" t="n">
-        <v>169648</v>
+        <v>242935</v>
       </c>
       <c r="AE66" s="20" t="n">
-        <v>242935</v>
+        <v>610029</v>
       </c>
       <c r="AF66" s="20" t="n">
-        <v>610029</v>
+        <v>59134</v>
       </c>
       <c r="AG66" s="20" t="n">
-        <v>59134</v>
+        <v>50776</v>
       </c>
       <c r="AH66" s="20" t="n">
-        <v>50776</v>
+        <v>72698</v>
       </c>
       <c r="AI66" s="20" t="n">
-        <v>72698</v>
+        <v>29961</v>
       </c>
       <c r="AJ66" s="20" t="n">
-        <v>29961</v>
+        <v>42185</v>
       </c>
       <c r="AK66" s="20" t="n">
-        <v>42185</v>
+        <v>96784</v>
       </c>
       <c r="AL66" s="20" t="n">
-        <v>96784</v>
+        <v>130433</v>
       </c>
       <c r="AM66" s="20" t="n">
-        <v>130433</v>
+        <v>55543</v>
       </c>
       <c r="AN66" s="20" t="n">
-        <v>55543</v>
+        <v>116578</v>
       </c>
       <c r="AO66" s="20" t="n">
-        <v>116578</v>
+        <v>42148</v>
       </c>
       <c r="AP66" s="20" t="n">
-        <v>42148</v>
+        <v>72724</v>
       </c>
       <c r="AQ66" s="20" t="n">
-        <v>72724</v>
+        <v>85466</v>
       </c>
       <c r="AR66" s="20" t="n">
-        <v>85466</v>
+        <v>144726</v>
       </c>
       <c r="AS66" s="20" t="n">
-        <v>144726</v>
+        <v>97143</v>
       </c>
       <c r="AT66" s="20" t="n">
-        <v>97143</v>
+        <v>139054</v>
       </c>
       <c r="AU66" s="20" t="n">
-        <v>139054</v>
+        <v>124649</v>
       </c>
       <c r="AV66" s="20" t="n">
-        <v>124649</v>
+        <v>343615</v>
       </c>
       <c r="AW66" s="20" t="n">
-        <v>343615</v>
+        <v>936958</v>
       </c>
       <c r="AX66" s="20" t="n">
-        <v>936958</v>
+        <v>546655</v>
       </c>
       <c r="AY66" s="20" t="n">
-        <v>546655</v>
+        <v>730852</v>
       </c>
       <c r="AZ66" s="20" t="n">
-        <v>730852</v>
+        <v>519820</v>
       </c>
       <c r="BA66" s="20" t="n">
-        <v>519820</v>
+        <v>454783</v>
       </c>
       <c r="BB66" s="20" t="n">
-        <v>454783</v>
+        <v>394648</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,8 +10589,8 @@
       <c r="T68" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="20" t="s">
-        <v>58</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10805,8 +10805,8 @@
       <c r="T70" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="20" t="s">
-        <v>58</v>
+      <c r="U70" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="23" t="n">
         <v>0</v>
@@ -11021,8 +11021,8 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="13" t="n">
         <v>0</v>
@@ -11179,106 +11179,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="n">
-        <v>0</v>
+        <v>614660</v>
       </c>
       <c r="V73" s="18" t="n">
-        <v>614660</v>
+        <v>588226</v>
       </c>
       <c r="W73" s="18" t="n">
-        <v>588226</v>
+        <v>514614</v>
       </c>
       <c r="X73" s="18" t="n">
-        <v>514614</v>
+        <v>540657</v>
       </c>
       <c r="Y73" s="18" t="n">
-        <v>540657</v>
+        <v>756508</v>
       </c>
       <c r="Z73" s="18" t="n">
-        <v>756508</v>
+        <v>706880</v>
       </c>
       <c r="AA73" s="18" t="n">
-        <v>706880</v>
+        <v>770047</v>
       </c>
       <c r="AB73" s="18" t="n">
-        <v>770047</v>
+        <v>725063</v>
       </c>
       <c r="AC73" s="18" t="n">
-        <v>725063</v>
+        <v>599541</v>
       </c>
       <c r="AD73" s="18" t="n">
-        <v>599541</v>
+        <v>600966</v>
       </c>
       <c r="AE73" s="18" t="n">
-        <v>600966</v>
+        <v>1286599</v>
       </c>
       <c r="AF73" s="18" t="n">
-        <v>1286599</v>
+        <v>784159</v>
       </c>
       <c r="AG73" s="18" t="n">
-        <v>784159</v>
+        <v>703659</v>
       </c>
       <c r="AH73" s="18" t="n">
-        <v>703659</v>
+        <v>688357</v>
       </c>
       <c r="AI73" s="18" t="n">
-        <v>688357</v>
+        <v>1183475</v>
       </c>
       <c r="AJ73" s="18" t="n">
-        <v>1183475</v>
+        <v>937071</v>
       </c>
       <c r="AK73" s="18" t="n">
-        <v>937071</v>
+        <v>1027369</v>
       </c>
       <c r="AL73" s="18" t="n">
-        <v>1027369</v>
+        <v>1126089</v>
       </c>
       <c r="AM73" s="18" t="n">
-        <v>1126089</v>
+        <v>931598</v>
       </c>
       <c r="AN73" s="18" t="n">
-        <v>931598</v>
+        <v>948168</v>
       </c>
       <c r="AO73" s="18" t="n">
-        <v>948168</v>
+        <v>1133649</v>
       </c>
       <c r="AP73" s="18" t="n">
-        <v>1133649</v>
+        <v>860683</v>
       </c>
       <c r="AQ73" s="18" t="n">
-        <v>860683</v>
+        <v>1071738</v>
       </c>
       <c r="AR73" s="18" t="n">
-        <v>1071738</v>
+        <v>1483192</v>
       </c>
       <c r="AS73" s="18" t="n">
-        <v>1483192</v>
+        <v>1462599</v>
       </c>
       <c r="AT73" s="18" t="n">
-        <v>1462599</v>
+        <v>1502415</v>
       </c>
       <c r="AU73" s="18" t="n">
-        <v>1502415</v>
+        <v>1756891</v>
       </c>
       <c r="AV73" s="18" t="n">
-        <v>1756891</v>
+        <v>1710848</v>
       </c>
       <c r="AW73" s="18" t="n">
-        <v>1710848</v>
+        <v>2442435</v>
       </c>
       <c r="AX73" s="18" t="n">
-        <v>2442435</v>
+        <v>2175643</v>
       </c>
       <c r="AY73" s="18" t="n">
-        <v>2175643</v>
+        <v>2313918</v>
       </c>
       <c r="AZ73" s="18" t="n">
-        <v>2313918</v>
+        <v>2141539</v>
       </c>
       <c r="BA73" s="18" t="n">
-        <v>2141539</v>
+        <v>2235441</v>
       </c>
       <c r="BB73" s="18" t="n">
-        <v>2235441</v>
+        <v>1898203</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11771,107 +11771,107 @@
       <c r="T80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="13" t="s">
-        <v>58</v>
+      <c r="U80" s="13" t="n">
+        <v>4435536</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>4435536</v>
+        <v>4687573</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>4687573</v>
+        <v>4780662</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>4780662</v>
+        <v>4827508</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>4827508</v>
+        <v>5094837</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>5094837</v>
+        <v>5182830</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>5182830</v>
+        <v>5175361</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>5175361</v>
+        <v>5179514</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>5179514</v>
+        <v>5162436</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>5162436</v>
+        <v>6264290</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>6264290</v>
+        <v>6901416</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>6901416</v>
+        <v>7087608</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>7087608</v>
+        <v>8413854</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>8413854</v>
+        <v>9744876</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>9744876</v>
+        <v>13006116</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>13006116</v>
+        <v>11926972</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>11926972</v>
+        <v>10100824</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>10100824</v>
+        <v>9687824</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>9687824</v>
+        <v>9088115</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>9088115</v>
+        <v>9263819</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>9263819</v>
+        <v>10434063</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>10434063</v>
+        <v>8070558</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>8070558</v>
+        <v>11520753</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>11520753</v>
+        <v>12991403</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>12991403</v>
+        <v>16397494</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>16397494</v>
+        <v>15228068</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>15228068</v>
+        <v>14590287</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>14590287</v>
+        <v>11682256</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>11682256</v>
+        <v>12275129</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>12275129</v>
+        <v>15354093</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>15354093</v>
+        <v>14086178</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>14086178</v>
+        <v>14728897</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>14728897</v>
+        <v>15333101</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>15333101</v>
+        <v>17117332</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11930,107 +11930,107 @@
       <c r="T81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="16" t="s">
-        <v>58</v>
+      <c r="U81" s="16" t="n">
+        <v>2115596</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>2115596</v>
+        <v>2376254</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>2376254</v>
+        <v>2379881</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>2379881</v>
+        <v>2419015</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>2419015</v>
+        <v>2555618</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>2555618</v>
+        <v>2511009</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>2511009</v>
+        <v>2537629</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>2537629</v>
+        <v>2506691</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>2506691</v>
+        <v>2548149</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>2548149</v>
+        <v>2739991</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>2739991</v>
+        <v>3572777</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>3572777</v>
+        <v>3551029</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>3551029</v>
+        <v>4321022</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>4321022</v>
+        <v>5987882</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>5987882</v>
+        <v>6461456</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>6461456</v>
+        <v>4578363</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>4578363</v>
+        <v>4450450</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>4450450</v>
+        <v>4783579</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>4783579</v>
+        <v>4710786</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>4710786</v>
+        <v>4539422</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>4539422</v>
+        <v>5055916</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>5055916</v>
+        <v>5013949</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>5013949</v>
+        <v>4937644</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>4937644</v>
+        <v>6477447</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>6477447</v>
+        <v>8207939</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>8207939</v>
+        <v>7647472</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>7647472</v>
+        <v>6977087</v>
       </c>
       <c r="AV81" s="16" t="n">
-        <v>6977087</v>
+        <v>6829781</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>6829781</v>
+        <v>6591579</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>6591579</v>
+        <v>6292681</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>6292681</v>
+        <v>6167304</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>6167304</v>
+        <v>6769265</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>6769265</v>
+        <v>7589661</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>7589661</v>
+        <v>8072985</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,17 +12176,17 @@
       <c r="AW82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX82" s="13" t="s">
-        <v>58</v>
+      <c r="AX82" s="13" t="n">
+        <v>3203175</v>
       </c>
       <c r="AY82" s="13" t="n">
-        <v>3203175</v>
+        <v>3200000</v>
       </c>
       <c r="AZ82" s="13" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="BA82" s="13" t="n">
         <v>3199947</v>
+      </c>
+      <c r="BA82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB82" s="13" t="s">
         <v>58</v>
@@ -12332,80 +12332,80 @@
       <c r="AC84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="13" t="s">
-        <v>58</v>
+      <c r="AD84" s="13" t="n">
+        <v>9941091</v>
       </c>
       <c r="AE84" s="13" t="n">
-        <v>9941091</v>
+        <v>10673354</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>10673354</v>
+        <v>10307478</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>10307478</v>
+        <v>11358420</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>11358420</v>
+        <v>11849715</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>11849715</v>
+        <v>12038332</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>12038332</v>
+        <v>12394667</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>12394667</v>
+        <v>13980066</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>13980066</v>
+        <v>14059916</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>14059916</v>
+        <v>13271924</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>13271924</v>
+        <v>12731016</v>
       </c>
       <c r="AO84" s="13" t="n">
-        <v>12731016</v>
+        <v>12436707</v>
       </c>
       <c r="AP84" s="13" t="n">
-        <v>12436707</v>
+        <v>11611836</v>
       </c>
       <c r="AQ84" s="13" t="n">
-        <v>11611836</v>
+        <v>14962535</v>
       </c>
       <c r="AR84" s="13" t="n">
-        <v>14962535</v>
+        <v>17305512</v>
       </c>
       <c r="AS84" s="13" t="n">
-        <v>17305512</v>
+        <v>19786579</v>
       </c>
       <c r="AT84" s="13" t="n">
-        <v>19786579</v>
+        <v>19901818</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>19901818</v>
+        <v>19646771</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>19646771</v>
+        <v>19308382</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>19308382</v>
+        <v>19756911</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>19756911</v>
+        <v>20259789</v>
       </c>
       <c r="AY84" s="13" t="n">
-        <v>20259789</v>
+        <v>20420324</v>
       </c>
       <c r="AZ84" s="13" t="n">
-        <v>20420324</v>
+        <v>20424157</v>
       </c>
       <c r="BA84" s="13" t="n">
-        <v>20424157</v>
+        <v>25245181</v>
       </c>
       <c r="BB84" s="13" t="n">
-        <v>25245181</v>
+        <v>27463889</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12491,15 +12491,15 @@
       <c r="AC85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD85" s="16" t="s">
-        <v>58</v>
+      <c r="AD85" s="16" t="n">
+        <v>9293015</v>
       </c>
       <c r="AE85" s="16" t="n">
-        <v>9293015</v>
-      </c>
-      <c r="AF85" s="16" t="n">
         <v>9145966</v>
       </c>
+      <c r="AF85" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG85" s="16" t="s">
         <v>58</v>
       </c>
@@ -12515,11 +12515,11 @@
       <c r="AK85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL85" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM85" s="16" t="n">
+      <c r="AL85" s="16" t="n">
         <v>12621672</v>
+      </c>
+      <c r="AM85" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN85" s="16" t="s">
         <v>58</v>
@@ -12638,12 +12638,12 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA86" s="13" t="n">
+      <c r="Z86" s="13" t="n">
         <v>9353791</v>
       </c>
+      <c r="AA86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB86" s="13" t="s">
         <v>58</v>
       </c>
@@ -12680,12 +12680,12 @@
       <c r="AM86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO86" s="13" t="n">
+      <c r="AN86" s="13" t="n">
         <v>11061348</v>
       </c>
+      <c r="AO86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP86" s="13" t="s">
         <v>58</v>
       </c>
@@ -12713,11 +12713,11 @@
       <c r="AX86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ86" s="13" t="n">
+      <c r="AY86" s="13" t="n">
         <v>16120988</v>
+      </c>
+      <c r="AZ86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA86" s="13" t="s">
         <v>58</v>
@@ -12782,35 +12782,35 @@
       <c r="T87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>58</v>
+      <c r="U87" s="16" t="n">
+        <v>7893384</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>7893384</v>
+        <v>9107957</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>9107957</v>
+        <v>9444525</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>9444525</v>
+        <v>10889351</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>10889351</v>
+        <v>11407293</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>11407293</v>
+        <v>11452422</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>11452422</v>
+        <v>10758008</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>10758008</v>
+        <v>10287172</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>10287172</v>
-      </c>
-      <c r="AD87" s="16" t="n">
         <v>10188773</v>
+      </c>
+      <c r="AD87" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE87" s="16" t="s">
         <v>58</v>
@@ -12941,36 +12941,36 @@
       <c r="T88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="13" t="s">
-        <v>58</v>
+      <c r="U88" s="13" t="n">
+        <v>2996309</v>
       </c>
       <c r="V88" s="13" t="n">
-        <v>2996309</v>
-      </c>
-      <c r="W88" s="13" t="n">
         <v>3566860</v>
       </c>
+      <c r="W88" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="X88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="13" t="s">
-        <v>58</v>
+      <c r="Y88" s="13" t="n">
+        <v>4249388</v>
       </c>
       <c r="Z88" s="13" t="n">
-        <v>4249388</v>
+        <v>4255247</v>
       </c>
       <c r="AA88" s="13" t="n">
-        <v>4255247</v>
+        <v>4390566</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>4390566</v>
+        <v>4233075</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>4233075</v>
-      </c>
-      <c r="AD88" s="13" t="n">
         <v>4375458</v>
       </c>
+      <c r="AD88" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE88" s="13" t="s">
         <v>58</v>
       </c>
@@ -13019,29 +13019,29 @@
       <c r="AT88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU88" s="13" t="s">
-        <v>58</v>
+      <c r="AU88" s="13" t="n">
+        <v>8294526</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>8294526</v>
+        <v>8294940</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>8294940</v>
+        <v>8328632</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>8328632</v>
+        <v>8482946</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>8482946</v>
+        <v>8723729</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>8723729</v>
+        <v>8798470</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>8798470</v>
+        <v>10771439</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>10771439</v>
+        <v>11785271</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13127,14 +13127,14 @@
       <c r="AC89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD89" s="16" t="s">
-        <v>58</v>
+      <c r="AD89" s="16" t="n">
+        <v>4383160</v>
       </c>
       <c r="AE89" s="16" t="n">
-        <v>4383160</v>
-      </c>
-      <c r="AF89" s="16" t="n">
         <v>4425223</v>
+      </c>
+      <c r="AF89" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG89" s="16" t="s">
         <v>58</v>
